--- a/input/Meta_Groups.xlsx
+++ b/input/Meta_Groups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Meta_Groups"/>
   </sheets>
   <definedNames>
-    <definedName name="Meta_Groups">'Meta_Groups'!$A$1:$AH$479</definedName>
+    <definedName name="Meta_Groups">'Meta_Groups'!$A$1:$AJ$479</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH479"/>
+  <dimension ref="A1:AJ479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -522,6 +522,16 @@
           <t>reviewer</t>
         </is>
       </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>alcedo-page</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>facsimile</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -601,6 +611,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI2" s="0" t="inlineStr">
+        <is>
+          <t>v1-0002</t>
+        </is>
+      </c>
+      <c r="AJ2" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0002</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -648,14 +668,14 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M3" s="0">
-        <v>44.0014</v>
+        <v>33.995670514</v>
       </c>
       <c r="N3" s="0">
-        <v>-80.4986</v>
+        <v>-85.743268942</v>
       </c>
       <c r="O3" s="0">
         <v>14</v>
@@ -680,6 +700,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI3" s="0" t="inlineStr">
+        <is>
+          <t>v1-0003</t>
+        </is>
+      </c>
+      <c r="AJ3" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0003</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -759,6 +789,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI4" s="0" t="inlineStr">
+        <is>
+          <t>v1-0004</t>
+        </is>
+      </c>
+      <c r="AJ4" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0004</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -838,6 +878,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI5" s="0" t="inlineStr">
+        <is>
+          <t>v1-0005</t>
+        </is>
+      </c>
+      <c r="AJ5" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0005</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -917,6 +967,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI6" s="0" t="inlineStr">
+        <is>
+          <t>v1-0013</t>
+        </is>
+      </c>
+      <c r="AJ6" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0013</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -996,6 +1056,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI7" s="0" t="inlineStr">
+        <is>
+          <t>v1-0015</t>
+        </is>
+      </c>
+      <c r="AJ7" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0015</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1075,6 +1145,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI8" s="0" t="inlineStr">
+        <is>
+          <t>v1-0024</t>
+        </is>
+      </c>
+      <c r="AJ8" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0024</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1154,6 +1234,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI9" s="0" t="inlineStr">
+        <is>
+          <t>v1-0025</t>
+        </is>
+      </c>
+      <c r="AJ9" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0025</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1233,6 +1323,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI10" s="0" t="inlineStr">
+        <is>
+          <t>v1-0025</t>
+        </is>
+      </c>
+      <c r="AJ10" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0025</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1312,6 +1412,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI11" s="0" t="inlineStr">
+        <is>
+          <t>v1-0545</t>
+        </is>
+      </c>
+      <c r="AJ11" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0545</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -1391,6 +1501,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI12" s="0" t="inlineStr">
+        <is>
+          <t>v1-0033</t>
+        </is>
+      </c>
+      <c r="AJ12" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0033</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1470,6 +1590,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI13" s="0" t="inlineStr">
+        <is>
+          <t>v1-0040</t>
+        </is>
+      </c>
+      <c r="AJ13" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0040</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -1549,6 +1679,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI14" s="0" t="inlineStr">
+        <is>
+          <t>v1-0041</t>
+        </is>
+      </c>
+      <c r="AJ14" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0041</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -1596,14 +1736,14 @@
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M15" s="0">
-        <v>43.94666921</v>
+        <v>42.684146765</v>
       </c>
       <c r="N15" s="0">
-        <v>-96.53704736</v>
+        <v>-95.684829607</v>
       </c>
       <c r="O15" s="0">
         <v>455</v>
@@ -1643,6 +1783,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI15" s="0" t="inlineStr">
+        <is>
+          <t>v1-0042</t>
+        </is>
+      </c>
+      <c r="AJ15" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0042</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -1690,14 +1840,14 @@
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M16" s="0">
-        <v>34.5059</v>
+        <v>33.857789106</v>
       </c>
       <c r="N16" s="0">
-        <v>-92.3241</v>
+        <v>-92.044295671</v>
       </c>
       <c r="O16" s="0">
         <v>457</v>
@@ -1722,6 +1872,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI16" s="0" t="inlineStr">
+        <is>
+          <t>v1-0042</t>
+        </is>
+      </c>
+      <c r="AJ16" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0042</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -1801,6 +1961,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI17" s="0" t="inlineStr">
+        <is>
+          <t>v1-0048</t>
+        </is>
+      </c>
+      <c r="AJ17" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0048</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -1852,10 +2022,10 @@
         </is>
       </c>
       <c r="M18" s="0">
-        <v>43.5433</v>
+        <v>44.803113017</v>
       </c>
       <c r="N18" s="0">
-        <v>-79.9567</v>
+        <v>-77.310845206</v>
       </c>
       <c r="O18" s="0">
         <v>531</v>
@@ -1880,6 +2050,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI18" s="0" t="inlineStr">
+        <is>
+          <t>v1-0050</t>
+        </is>
+      </c>
+      <c r="AJ18" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0050</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -1927,14 +2107,14 @@
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M19" s="0">
-        <v>32.3638</v>
+        <v>32.625505187</v>
       </c>
       <c r="N19" s="0">
-        <v>-89.5362</v>
+        <v>-86.766137145</v>
       </c>
       <c r="O19" s="0">
         <v>536</v>
@@ -1959,6 +2139,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI19" s="0" t="inlineStr">
+        <is>
+          <t>v1-0050</t>
+        </is>
+      </c>
+      <c r="AJ19" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0050</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -2006,14 +2196,14 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M20" s="0">
-        <v>43.5445</v>
+        <v>33.849268869</v>
       </c>
       <c r="N20" s="0">
-        <v>-80.0555</v>
+        <v>-91.54215175</v>
       </c>
       <c r="O20" s="0">
         <v>543</v>
@@ -2038,6 +2228,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI20" s="0" t="inlineStr">
+        <is>
+          <t>v1-0051</t>
+        </is>
+      </c>
+      <c r="AJ20" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0051</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -2117,6 +2317,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI21" s="0" t="inlineStr">
+        <is>
+          <t>v1-0090</t>
+        </is>
+      </c>
+      <c r="AJ21" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0090</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -2196,6 +2406,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI22" s="0" t="inlineStr">
+        <is>
+          <t>v1-0090</t>
+        </is>
+      </c>
+      <c r="AJ22" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0090</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -2275,6 +2495,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI23" s="0" t="inlineStr">
+        <is>
+          <t>v1-0553</t>
+        </is>
+      </c>
+      <c r="AJ23" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0553</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -2354,6 +2584,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI24" s="0" t="inlineStr">
+        <is>
+          <t>v1-0553</t>
+        </is>
+      </c>
+      <c r="AJ24" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0553</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -2433,6 +2673,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI25" s="0" t="inlineStr">
+        <is>
+          <t>v1-0253</t>
+        </is>
+      </c>
+      <c r="AJ25" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0253</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -2512,6 +2762,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI26" s="0" t="inlineStr">
+        <is>
+          <t>v1-0255</t>
+        </is>
+      </c>
+      <c r="AJ26" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0255</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -2606,6 +2866,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI27" s="0" t="inlineStr">
+        <is>
+          <t>v1-0058</t>
+        </is>
+      </c>
+      <c r="AJ27" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0058</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -2685,6 +2955,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI28" s="0" t="inlineStr">
+        <is>
+          <t>v1-0060</t>
+        </is>
+      </c>
+      <c r="AJ28" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0060</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -2764,6 +3044,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI29" s="0" t="inlineStr">
+        <is>
+          <t>v1-0061</t>
+        </is>
+      </c>
+      <c r="AJ29" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0061</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -2858,6 +3148,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI30" s="0" t="inlineStr">
+        <is>
+          <t>v1-0081</t>
+        </is>
+      </c>
+      <c r="AJ30" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0081</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -2937,6 +3237,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI31" s="0" t="inlineStr">
+        <is>
+          <t>v1-0082</t>
+        </is>
+      </c>
+      <c r="AJ31" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0082</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -3016,6 +3326,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI32" s="0" t="inlineStr">
+        <is>
+          <t>v1-0083</t>
+        </is>
+      </c>
+      <c r="AJ32" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0083</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -3095,6 +3415,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI33" s="0" t="inlineStr">
+        <is>
+          <t>v1-0093</t>
+        </is>
+      </c>
+      <c r="AJ33" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0093</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -3146,10 +3476,10 @@
         </is>
       </c>
       <c r="M34" s="0">
-        <v>43.5849</v>
+        <v>39.91557011</v>
       </c>
       <c r="N34" s="0">
-        <v>-80.1151</v>
+        <v>-76.997849396</v>
       </c>
       <c r="O34" s="0">
         <v>947</v>
@@ -3174,6 +3504,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI34" s="0" t="inlineStr">
+        <is>
+          <t>v1-0097</t>
+        </is>
+      </c>
+      <c r="AJ34" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0097</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -3253,6 +3593,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI35" s="0" t="inlineStr">
+        <is>
+          <t>v1-0111</t>
+        </is>
+      </c>
+      <c r="AJ35" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0111</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -3332,6 +3682,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI36" s="0" t="inlineStr">
+        <is>
+          <t>v1-0113</t>
+        </is>
+      </c>
+      <c r="AJ36" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0113</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -3411,6 +3771,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI37" s="0" t="inlineStr">
+        <is>
+          <t>v1-0116</t>
+        </is>
+      </c>
+      <c r="AJ37" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0116</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -3458,14 +3828,14 @@
       </c>
       <c r="L38" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M38" s="0">
-        <v>30.5086</v>
+        <v>30.643777548</v>
       </c>
       <c r="N38" s="0">
-        <v>-82.9914</v>
+        <v>-84.472153416</v>
       </c>
       <c r="O38" s="0">
         <v>1184</v>
@@ -3490,6 +3860,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI38" s="0" t="inlineStr">
+        <is>
+          <t>v1-0127</t>
+        </is>
+      </c>
+      <c r="AJ38" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0127</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -3584,6 +3964,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI39" s="0" t="inlineStr">
+        <is>
+          <t>v1-0128</t>
+        </is>
+      </c>
+      <c r="AJ39" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0128</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -3663,6 +4053,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI40" s="0" t="inlineStr">
+        <is>
+          <t>v1-0128</t>
+        </is>
+      </c>
+      <c r="AJ40" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0128</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -3742,6 +4142,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI41" s="0" t="inlineStr">
+        <is>
+          <t>v1-0130</t>
+        </is>
+      </c>
+      <c r="AJ41" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -3821,6 +4231,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI42" s="0" t="inlineStr">
+        <is>
+          <t>v1-0130</t>
+        </is>
+      </c>
+      <c r="AJ42" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -3915,6 +4335,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI43" s="0" t="inlineStr">
+        <is>
+          <t>v1-0130</t>
+        </is>
+      </c>
+      <c r="AJ43" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -3994,6 +4424,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI44" s="0" t="inlineStr">
+        <is>
+          <t>v1-0130</t>
+        </is>
+      </c>
+      <c r="AJ44" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4073,6 +4513,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI45" s="0" t="inlineStr">
+        <is>
+          <t>v1-0133</t>
+        </is>
+      </c>
+      <c r="AJ45" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0133</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4167,6 +4617,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI46" s="0" t="inlineStr">
+        <is>
+          <t>v1-0134</t>
+        </is>
+      </c>
+      <c r="AJ46" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0134</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4261,6 +4721,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI47" s="0" t="inlineStr">
+        <is>
+          <t>v1-0136</t>
+        </is>
+      </c>
+      <c r="AJ47" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0136</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4355,6 +4825,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI48" s="0" t="inlineStr">
+        <is>
+          <t>v1-0138</t>
+        </is>
+      </c>
+      <c r="AJ48" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0138</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4434,6 +4914,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI49" s="0" t="inlineStr">
+        <is>
+          <t>v1-0141</t>
+        </is>
+      </c>
+      <c r="AJ49" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0141</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4523,6 +5013,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI50" s="0" t="inlineStr">
+        <is>
+          <t>v1-0142</t>
+        </is>
+      </c>
+      <c r="AJ50" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0142</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4602,6 +5102,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI51" s="0" t="inlineStr">
+        <is>
+          <t>v1-0146</t>
+        </is>
+      </c>
+      <c r="AJ51" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0146</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4649,14 +5159,14 @@
       </c>
       <c r="L52" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M52" s="0">
-        <v>45.64283639</v>
+        <v>43.189770586</v>
       </c>
       <c r="N52" s="0">
-        <v>-100.12594267</v>
+        <v>-97.732939953</v>
       </c>
       <c r="O52" s="0">
         <v>1364</v>
@@ -4696,6 +5206,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI52" s="0" t="inlineStr">
+        <is>
+          <t>v1-0154</t>
+        </is>
+      </c>
+      <c r="AJ52" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0154</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4775,6 +5295,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI53" s="0" t="inlineStr">
+        <is>
+          <t>v1-0155</t>
+        </is>
+      </c>
+      <c r="AJ53" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0155</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4854,6 +5384,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI54" s="0" t="inlineStr">
+        <is>
+          <t>v1-0155</t>
+        </is>
+      </c>
+      <c r="AJ54" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0155</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4933,6 +5473,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI55" s="0" t="inlineStr">
+        <is>
+          <t>v1-0158</t>
+        </is>
+      </c>
+      <c r="AJ55" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0158</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4984,10 +5534,10 @@
         </is>
       </c>
       <c r="M56" s="0">
-        <v>44.0305</v>
+        <v>41.826650045</v>
       </c>
       <c r="N56" s="0">
-        <v>-81.0695</v>
+        <v>-77.222190479</v>
       </c>
       <c r="O56" s="0">
         <v>1403</v>
@@ -5012,6 +5562,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI56" s="0" t="inlineStr">
+        <is>
+          <t>v1-0158</t>
+        </is>
+      </c>
+      <c r="AJ56" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0158</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -5091,6 +5651,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI57" s="0" t="inlineStr">
+        <is>
+          <t>v1-0160</t>
+        </is>
+      </c>
+      <c r="AJ57" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0160</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -5170,6 +5740,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI58" s="0" t="inlineStr">
+        <is>
+          <t>v1-0161</t>
+        </is>
+      </c>
+      <c r="AJ58" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0161</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -5249,6 +5829,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI59" s="0" t="inlineStr">
+        <is>
+          <t>v1-0162</t>
+        </is>
+      </c>
+      <c r="AJ59" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0162</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -5328,6 +5918,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI60" s="0" t="inlineStr">
+        <is>
+          <t>v1-0252</t>
+        </is>
+      </c>
+      <c r="AJ60" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0252</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -5375,14 +5975,14 @@
       </c>
       <c r="L61" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M61" s="0">
-        <v>43.5483</v>
+        <v>49.298807243</v>
       </c>
       <c r="N61" s="0">
-        <v>-80.2517</v>
+        <v>-105.234229356</v>
       </c>
       <c r="O61" s="0">
         <v>1567</v>
@@ -5407,6 +6007,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI61" s="0" t="inlineStr">
+        <is>
+          <t>v1-0165</t>
+        </is>
+      </c>
+      <c r="AJ61" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0165</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -5454,14 +6064,14 @@
       </c>
       <c r="L62" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M62" s="0">
-        <v>32.8114</v>
+        <v>30.300390998</v>
       </c>
       <c r="N62" s="0">
-        <v>-93.3486</v>
+        <v>-94.402550457</v>
       </c>
       <c r="O62" s="0">
         <v>1598</v>
@@ -5486,6 +6096,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI62" s="0" t="inlineStr">
+        <is>
+          <t>v1-0169</t>
+        </is>
+      </c>
+      <c r="AJ62" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0169</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -5565,6 +6185,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI63" s="0" t="inlineStr">
+        <is>
+          <t>v1-0171</t>
+        </is>
+      </c>
+      <c r="AJ63" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0171</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -5644,6 +6274,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI64" s="0" t="inlineStr">
+        <is>
+          <t>v1-0174</t>
+        </is>
+      </c>
+      <c r="AJ64" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0174</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -5723,6 +6363,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI65" s="0" t="inlineStr">
+        <is>
+          <t>v1-0186</t>
+        </is>
+      </c>
+      <c r="AJ65" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0186</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -5770,14 +6420,14 @@
       </c>
       <c r="L66" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M66" s="0">
-        <v>36.4346</v>
+        <v>31.174861542</v>
       </c>
       <c r="N66" s="0">
-        <v>-93.3954</v>
+        <v>-92.045087714</v>
       </c>
       <c r="O66" s="0">
         <v>1730</v>
@@ -5802,6 +6452,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI66" s="0" t="inlineStr">
+        <is>
+          <t>v1-0187</t>
+        </is>
+      </c>
+      <c r="AJ66" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0187</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -5881,6 +6541,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI67" s="0" t="inlineStr">
+        <is>
+          <t>v1-0188</t>
+        </is>
+      </c>
+      <c r="AJ67" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0188</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="0" t="inlineStr">
@@ -5960,6 +6630,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI68" s="0" t="inlineStr">
+        <is>
+          <t>v1-0190</t>
+        </is>
+      </c>
+      <c r="AJ68" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -6039,6 +6719,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI69" s="0" t="inlineStr">
+        <is>
+          <t>v1-0190</t>
+        </is>
+      </c>
+      <c r="AJ69" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -6118,6 +6808,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI70" s="0" t="inlineStr">
+        <is>
+          <t>v1-0190</t>
+        </is>
+      </c>
+      <c r="AJ70" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -6165,14 +6865,14 @@
       </c>
       <c r="L71" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M71" s="0">
-        <v>30.567</v>
+        <v>31.556502744</v>
       </c>
       <c r="N71" s="0">
-        <v>-83.033</v>
+        <v>-94.148078993</v>
       </c>
       <c r="O71" s="0">
         <v>1754</v>
@@ -6197,6 +6897,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI71" s="0" t="inlineStr">
+        <is>
+          <t>v1-0190</t>
+        </is>
+      </c>
+      <c r="AJ71" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -6244,14 +6954,14 @@
       </c>
       <c r="L72" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M72" s="0">
-        <v>37.59250716</v>
+        <v>30.070014662</v>
       </c>
       <c r="N72" s="0">
-        <v>-94.26576556</v>
+        <v>-91.058420528</v>
       </c>
       <c r="O72" s="0">
         <v>1827</v>
@@ -6291,6 +7001,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI72" s="0" t="inlineStr">
+        <is>
+          <t>v1-0201</t>
+        </is>
+      </c>
+      <c r="AJ72" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0201</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -6370,6 +7090,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI73" s="0" t="inlineStr">
+        <is>
+          <t>v1-0208</t>
+        </is>
+      </c>
+      <c r="AJ73" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0208</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -6449,6 +7179,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI74" s="0" t="inlineStr">
+        <is>
+          <t>v1-0214</t>
+        </is>
+      </c>
+      <c r="AJ74" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0214</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -6528,6 +7268,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI75" s="0" t="inlineStr">
+        <is>
+          <t>v1-0214</t>
+        </is>
+      </c>
+      <c r="AJ75" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0214</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -6607,6 +7357,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI76" s="0" t="inlineStr">
+        <is>
+          <t>v1-0216</t>
+        </is>
+      </c>
+      <c r="AJ76" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0216</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -6686,6 +7446,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI77" s="0" t="inlineStr">
+        <is>
+          <t>v1-0226</t>
+        </is>
+      </c>
+      <c r="AJ77" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0226</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -6765,6 +7535,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI78" s="0" t="inlineStr">
+        <is>
+          <t>v1-0228</t>
+        </is>
+      </c>
+      <c r="AJ78" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0228</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -6844,6 +7624,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI79" s="0" t="inlineStr">
+        <is>
+          <t>v1-0246</t>
+        </is>
+      </c>
+      <c r="AJ79" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0246</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -6923,6 +7713,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI80" s="0" t="inlineStr">
+        <is>
+          <t>v1-0248</t>
+        </is>
+      </c>
+      <c r="AJ80" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0248</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="0" t="inlineStr">
@@ -7002,6 +7802,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI81" s="0" t="inlineStr">
+        <is>
+          <t>v1-0289</t>
+        </is>
+      </c>
+      <c r="AJ81" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0289</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0" t="inlineStr">
@@ -7049,14 +7859,14 @@
       </c>
       <c r="L82" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M82" s="0">
-        <v>37.61070716</v>
+        <v>32.449494465</v>
       </c>
       <c r="N82" s="0">
-        <v>-94.27756556</v>
+        <v>-93.632852569</v>
       </c>
       <c r="O82" s="0">
         <v>2696</v>
@@ -7096,6 +7906,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI82" s="0" t="inlineStr">
+        <is>
+          <t>v1-0301</t>
+        </is>
+      </c>
+      <c r="AJ82" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0301</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -7175,6 +7995,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI83" s="0" t="inlineStr">
+        <is>
+          <t>v1-0320</t>
+        </is>
+      </c>
+      <c r="AJ83" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0320</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -7254,6 +8084,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI84" s="0" t="inlineStr">
+        <is>
+          <t>v1-0326</t>
+        </is>
+      </c>
+      <c r="AJ84" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0326</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -7333,6 +8173,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI85" s="0" t="inlineStr">
+        <is>
+          <t>v1-0327</t>
+        </is>
+      </c>
+      <c r="AJ85" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0327</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -7412,6 +8262,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI86" s="0" t="inlineStr">
+        <is>
+          <t>v1-0340</t>
+        </is>
+      </c>
+      <c r="AJ86" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0340</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -7491,6 +8351,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI87" s="0" t="inlineStr">
+        <is>
+          <t>v1-0341</t>
+        </is>
+      </c>
+      <c r="AJ87" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0341</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -7538,14 +8408,14 @@
       </c>
       <c r="L88" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M88" s="0">
-        <v>37.63850716</v>
+        <v>35.130449181</v>
       </c>
       <c r="N88" s="0">
-        <v>-94.28976556</v>
+        <v>-93.0734628</v>
       </c>
       <c r="O88" s="0">
         <v>2960</v>
@@ -7585,6 +8455,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI88" s="0" t="inlineStr">
+        <is>
+          <t>v1-0341</t>
+        </is>
+      </c>
+      <c r="AJ88" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0341</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -7664,6 +8544,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI89" s="0" t="inlineStr">
+        <is>
+          <t>v1-0368</t>
+        </is>
+      </c>
+      <c r="AJ89" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0368</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -7743,6 +8633,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI90" s="0" t="inlineStr">
+        <is>
+          <t>v1-0376</t>
+        </is>
+      </c>
+      <c r="AJ90" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0376</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -7822,6 +8722,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI91" s="0" t="inlineStr">
+        <is>
+          <t>v1-0409</t>
+        </is>
+      </c>
+      <c r="AJ91" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0409</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -7901,6 +8811,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI92" s="0" t="inlineStr">
+        <is>
+          <t>v1-0427</t>
+        </is>
+      </c>
+      <c r="AJ92" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0427</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -7980,6 +8900,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI93" s="0" t="inlineStr">
+        <is>
+          <t>v1-0427</t>
+        </is>
+      </c>
+      <c r="AJ93" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0427</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -8059,6 +8989,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI94" s="0" t="inlineStr">
+        <is>
+          <t>v1-0427</t>
+        </is>
+      </c>
+      <c r="AJ94" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0427</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -8138,6 +9078,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI95" s="0" t="inlineStr">
+        <is>
+          <t>v1-0427</t>
+        </is>
+      </c>
+      <c r="AJ95" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0427</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0" t="inlineStr">
@@ -8185,14 +9135,14 @@
       </c>
       <c r="L96" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M96" s="0">
-        <v>31.65920693</v>
+        <v>31.54875521</v>
       </c>
       <c r="N96" s="0">
-        <v>-94.62099137</v>
+        <v>-94.75067668</v>
       </c>
       <c r="O96" s="0">
         <v>3444</v>
@@ -8232,6 +9182,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI96" s="0" t="inlineStr">
+        <is>
+          <t>v1-0438</t>
+        </is>
+      </c>
+      <c r="AJ96" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0438</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0" t="inlineStr">
@@ -8311,6 +9271,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI97" s="0" t="inlineStr">
+        <is>
+          <t>v1-0439</t>
+        </is>
+      </c>
+      <c r="AJ97" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0439</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -8390,6 +9360,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI98" s="0" t="inlineStr">
+        <is>
+          <t>v1-0439</t>
+        </is>
+      </c>
+      <c r="AJ98" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0439</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -8484,6 +9464,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI99" s="0" t="inlineStr">
+        <is>
+          <t>v1-0443</t>
+        </is>
+      </c>
+      <c r="AJ99" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0443</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -8563,6 +9553,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI100" s="0" t="inlineStr">
+        <is>
+          <t>v1-0466</t>
+        </is>
+      </c>
+      <c r="AJ100" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0466</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0" t="inlineStr">
@@ -8642,6 +9642,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI101" s="0" t="inlineStr">
+        <is>
+          <t>v1-0471</t>
+        </is>
+      </c>
+      <c r="AJ101" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0471</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -8721,6 +9731,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI102" s="0" t="inlineStr">
+        <is>
+          <t>v1-0476</t>
+        </is>
+      </c>
+      <c r="AJ102" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0476</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -8800,6 +9820,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI103" s="0" t="inlineStr">
+        <is>
+          <t>v1-0485</t>
+        </is>
+      </c>
+      <c r="AJ103" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0485</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0" t="inlineStr">
@@ -8879,6 +9909,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI104" s="0" t="inlineStr">
+        <is>
+          <t>v1-0502</t>
+        </is>
+      </c>
+      <c r="AJ104" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0502</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -8958,6 +9998,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI105" s="0" t="inlineStr">
+        <is>
+          <t>v1-0529</t>
+        </is>
+      </c>
+      <c r="AJ105" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0529</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -9037,6 +10087,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI106" s="0" t="inlineStr">
+        <is>
+          <t>v1-0530</t>
+        </is>
+      </c>
+      <c r="AJ106" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0530</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -9116,6 +10176,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI107" s="0" t="inlineStr">
+        <is>
+          <t>v1-0530</t>
+        </is>
+      </c>
+      <c r="AJ107" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0530</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0" t="inlineStr">
@@ -9195,6 +10265,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI108" s="0" t="inlineStr">
+        <is>
+          <t>v1-0534</t>
+        </is>
+      </c>
+      <c r="AJ108" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0534</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -9274,6 +10354,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI109" s="0" t="inlineStr">
+        <is>
+          <t>v1-0534</t>
+        </is>
+      </c>
+      <c r="AJ109" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0534</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -9353,6 +10443,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI110" s="0" t="inlineStr">
+        <is>
+          <t>v1-0535</t>
+        </is>
+      </c>
+      <c r="AJ110" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0535</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -9432,6 +10532,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI111" s="0" t="inlineStr">
+        <is>
+          <t>v1-0540</t>
+        </is>
+      </c>
+      <c r="AJ111" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0540</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0" t="inlineStr">
@@ -9511,6 +10621,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI112" s="0" t="inlineStr">
+        <is>
+          <t>v1-0544</t>
+        </is>
+      </c>
+      <c r="AJ112" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0544</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0" t="inlineStr">
@@ -9590,6 +10710,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI113" s="0" t="inlineStr">
+        <is>
+          <t>v1-0544</t>
+        </is>
+      </c>
+      <c r="AJ113" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0544</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0" t="inlineStr">
@@ -9669,6 +10799,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI114" s="0" t="inlineStr">
+        <is>
+          <t>v1-0562</t>
+        </is>
+      </c>
+      <c r="AJ114" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0562</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0" t="inlineStr">
@@ -9748,6 +10888,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI115" s="0" t="inlineStr">
+        <is>
+          <t>v1-0562</t>
+        </is>
+      </c>
+      <c r="AJ115" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0562</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0" t="inlineStr">
@@ -9827,6 +10977,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI116" s="0" t="inlineStr">
+        <is>
+          <t>v1-0565</t>
+        </is>
+      </c>
+      <c r="AJ116" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0565</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="0" t="inlineStr">
@@ -9906,6 +11066,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI117" s="0" t="inlineStr">
+        <is>
+          <t>v1-0566</t>
+        </is>
+      </c>
+      <c r="AJ117" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0566</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0" t="inlineStr">
@@ -9985,6 +11155,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI118" s="0" t="inlineStr">
+        <is>
+          <t>v1-0567</t>
+        </is>
+      </c>
+      <c r="AJ118" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0567</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0" t="inlineStr">
@@ -10064,6 +11244,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI119" s="0" t="inlineStr">
+        <is>
+          <t>v1-0577</t>
+        </is>
+      </c>
+      <c r="AJ119" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0577</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0" t="inlineStr">
@@ -10143,6 +11333,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI120" s="0" t="inlineStr">
+        <is>
+          <t>v1-0577</t>
+        </is>
+      </c>
+      <c r="AJ120" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0577</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0" t="inlineStr">
@@ -10222,6 +11422,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI121" s="0" t="inlineStr">
+        <is>
+          <t>v1-0583</t>
+        </is>
+      </c>
+      <c r="AJ121" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0583</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="0" t="inlineStr">
@@ -10301,6 +11511,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI122" s="0" t="inlineStr">
+        <is>
+          <t>v1-0585</t>
+        </is>
+      </c>
+      <c r="AJ122" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0585</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0" t="inlineStr">
@@ -10380,6 +11600,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI123" s="0" t="inlineStr">
+        <is>
+          <t>v1-0599</t>
+        </is>
+      </c>
+      <c r="AJ123" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0599</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0" t="inlineStr">
@@ -10459,6 +11689,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI124" s="0" t="inlineStr">
+        <is>
+          <t>v1-0604</t>
+        </is>
+      </c>
+      <c r="AJ124" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0604</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -10538,6 +11778,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI125" s="0" t="inlineStr">
+        <is>
+          <t>v1-0606</t>
+        </is>
+      </c>
+      <c r="AJ125" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0606</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="0" t="inlineStr">
@@ -10585,14 +11835,14 @@
       </c>
       <c r="L126" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M126" s="0">
-        <v>37.56620716</v>
+        <v>30.362397815</v>
       </c>
       <c r="N126" s="0">
-        <v>-94.35206556</v>
+        <v>-89.983683006</v>
       </c>
       <c r="O126" s="0">
         <v>4394</v>
@@ -10632,6 +11882,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI126" s="0" t="inlineStr">
+        <is>
+          <t>v1-0610</t>
+        </is>
+      </c>
+      <c r="AJ126" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0610</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0" t="inlineStr">
@@ -10711,6 +11971,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI127" s="0" t="inlineStr">
+        <is>
+          <t>v1-0614</t>
+        </is>
+      </c>
+      <c r="AJ127" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0614</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0" t="inlineStr">
@@ -10790,6 +12060,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI128" s="0" t="inlineStr">
+        <is>
+          <t>v1-0620</t>
+        </is>
+      </c>
+      <c r="AJ128" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0620</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0" t="inlineStr">
@@ -10869,6 +12149,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI129" s="0" t="inlineStr">
+        <is>
+          <t>v1-0644</t>
+        </is>
+      </c>
+      <c r="AJ129" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0644</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0" t="inlineStr">
@@ -10948,6 +12238,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI130" s="0" t="inlineStr">
+        <is>
+          <t>v1-0668</t>
+        </is>
+      </c>
+      <c r="AJ130" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0668</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="0" t="inlineStr">
@@ -11027,6 +12327,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI131" s="0" t="inlineStr">
+        <is>
+          <t>v1-0668</t>
+        </is>
+      </c>
+      <c r="AJ131" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0668</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="0" t="inlineStr">
@@ -11106,6 +12416,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI132" s="0" t="inlineStr">
+        <is>
+          <t>v1-0677</t>
+        </is>
+      </c>
+      <c r="AJ132" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0677</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="0" t="inlineStr">
@@ -11185,6 +12505,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI133" s="0" t="inlineStr">
+        <is>
+          <t>v1-0678</t>
+        </is>
+      </c>
+      <c r="AJ133" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0678</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0" t="inlineStr">
@@ -11264,6 +12594,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI134" s="0" t="inlineStr">
+        <is>
+          <t>v1-0706</t>
+        </is>
+      </c>
+      <c r="AJ134" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0706</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="0" t="inlineStr">
@@ -11343,6 +12683,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI135" s="0" t="inlineStr">
+        <is>
+          <t>v1-0725</t>
+        </is>
+      </c>
+      <c r="AJ135" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0725</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -11422,6 +12772,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI136" s="0" t="inlineStr">
+        <is>
+          <t>v1-0727</t>
+        </is>
+      </c>
+      <c r="AJ136" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0727</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -11501,6 +12861,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI137" s="0" t="inlineStr">
+        <is>
+          <t>v1-0727</t>
+        </is>
+      </c>
+      <c r="AJ137" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0727</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0" t="inlineStr">
@@ -11580,6 +12950,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI138" s="0" t="inlineStr">
+        <is>
+          <t>v1-0730</t>
+        </is>
+      </c>
+      <c r="AJ138" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0730</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -11659,6 +13039,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI139" s="0" t="inlineStr">
+        <is>
+          <t>v1-0734</t>
+        </is>
+      </c>
+      <c r="AJ139" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0734</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="0" t="inlineStr">
@@ -11748,6 +13138,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI140" s="0" t="inlineStr">
+        <is>
+          <t>v1-0734</t>
+        </is>
+      </c>
+      <c r="AJ140" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0734</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="0" t="inlineStr">
@@ -11827,6 +13227,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI141" s="0" t="inlineStr">
+        <is>
+          <t>v1-0735</t>
+        </is>
+      </c>
+      <c r="AJ141" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0735</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="0" t="inlineStr">
@@ -11906,6 +13316,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI142" s="0" t="inlineStr">
+        <is>
+          <t>v1-0737</t>
+        </is>
+      </c>
+      <c r="AJ142" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0737</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="0" t="inlineStr">
@@ -11985,6 +13405,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI143" s="0" t="inlineStr">
+        <is>
+          <t>v1-0738</t>
+        </is>
+      </c>
+      <c r="AJ143" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0738</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -12064,6 +13494,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI144" s="0" t="inlineStr">
+        <is>
+          <t>v1-0739</t>
+        </is>
+      </c>
+      <c r="AJ144" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_1-0739</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="0" t="inlineStr">
@@ -12143,6 +13583,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI145" s="0" t="inlineStr">
+        <is>
+          <t>v2-0140</t>
+        </is>
+      </c>
+      <c r="AJ145" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0140</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="0" t="inlineStr">
@@ -12190,14 +13640,14 @@
       </c>
       <c r="L146" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M146" s="0">
-        <v>37.59970716</v>
+        <v>33.273003114</v>
       </c>
       <c r="N146" s="0">
-        <v>-94.30856556</v>
+        <v>-99.478838838</v>
       </c>
       <c r="O146" s="0">
         <v>5512</v>
@@ -12237,6 +13687,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI146" s="0" t="inlineStr">
+        <is>
+          <t>v2-0536</t>
+        </is>
+      </c>
+      <c r="AJ146" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0536</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0" t="inlineStr">
@@ -12284,14 +13744,14 @@
       </c>
       <c r="L147" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M147" s="0">
-        <v>39.70572071</v>
+        <v>40.054040357</v>
       </c>
       <c r="N147" s="0">
-        <v>-94.35880752</v>
+        <v>-95.570508535</v>
       </c>
       <c r="O147" s="0">
         <v>5513</v>
@@ -12331,6 +13791,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI147" s="0" t="inlineStr">
+        <is>
+          <t>v2-0536</t>
+        </is>
+      </c>
+      <c r="AJ147" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0536</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0" t="inlineStr">
@@ -12410,6 +13880,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI148" s="0" t="inlineStr">
+        <is>
+          <t>v2-0537</t>
+        </is>
+      </c>
+      <c r="AJ148" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0537</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="0" t="inlineStr">
@@ -12489,6 +13969,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI149" s="0" t="inlineStr">
+        <is>
+          <t>v2-0022</t>
+        </is>
+      </c>
+      <c r="AJ149" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0022</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0" t="inlineStr">
@@ -12568,6 +14058,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI150" s="0" t="inlineStr">
+        <is>
+          <t>v2-0048</t>
+        </is>
+      </c>
+      <c r="AJ150" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0048</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="0" t="inlineStr">
@@ -12647,6 +14147,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI151" s="0" t="inlineStr">
+        <is>
+          <t>v2-0048</t>
+        </is>
+      </c>
+      <c r="AJ151" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0048</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="0" t="inlineStr">
@@ -12726,6 +14236,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI152" s="0" t="inlineStr">
+        <is>
+          <t>v2-0068</t>
+        </is>
+      </c>
+      <c r="AJ152" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0068</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="0" t="inlineStr">
@@ -12805,6 +14325,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI153" s="0" t="inlineStr">
+        <is>
+          <t>v2-0072</t>
+        </is>
+      </c>
+      <c r="AJ153" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0072</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0" t="inlineStr">
@@ -12852,14 +14382,14 @@
       </c>
       <c r="L154" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M154" s="0">
-        <v>44.0808</v>
+        <v>41.337080697</v>
       </c>
       <c r="N154" s="0">
-        <v>-80.8192</v>
+        <v>-81.306359322</v>
       </c>
       <c r="O154" s="0">
         <v>5889</v>
@@ -12884,6 +14414,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI154" s="0" t="inlineStr">
+        <is>
+          <t>v2-0073</t>
+        </is>
+      </c>
+      <c r="AJ154" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0073</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="0" t="inlineStr">
@@ -12963,6 +14503,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI155" s="0" t="inlineStr">
+        <is>
+          <t>v2-0449</t>
+        </is>
+      </c>
+      <c r="AJ155" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0449</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="0" t="inlineStr">
@@ -13042,6 +14592,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI156" s="0" t="inlineStr">
+        <is>
+          <t>v2-0450</t>
+        </is>
+      </c>
+      <c r="AJ156" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0450</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="0" t="inlineStr">
@@ -13121,6 +14681,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI157" s="0" t="inlineStr">
+        <is>
+          <t>v3-0006</t>
+        </is>
+      </c>
+      <c r="AJ157" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0006</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="0" t="inlineStr">
@@ -13200,6 +14770,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI158" s="0" t="inlineStr">
+        <is>
+          <t>v3-0300</t>
+        </is>
+      </c>
+      <c r="AJ158" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0300</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="0" t="inlineStr">
@@ -13279,6 +14859,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI159" s="0" t="inlineStr">
+        <is>
+          <t>v2-0096</t>
+        </is>
+      </c>
+      <c r="AJ159" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0096</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="0" t="inlineStr">
@@ -13358,6 +14948,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI160" s="0" t="inlineStr">
+        <is>
+          <t>v2-0163</t>
+        </is>
+      </c>
+      <c r="AJ160" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0163</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="0" t="inlineStr">
@@ -13437,6 +15037,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI161" s="0" t="inlineStr">
+        <is>
+          <t>v2-0164</t>
+        </is>
+      </c>
+      <c r="AJ161" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0164</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="0" t="inlineStr">
@@ -13516,6 +15126,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI162" s="0" t="inlineStr">
+        <is>
+          <t>v2-0188</t>
+        </is>
+      </c>
+      <c r="AJ162" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0188</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="0" t="inlineStr">
@@ -13595,6 +15215,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI163" s="0" t="inlineStr">
+        <is>
+          <t>v2-0338</t>
+        </is>
+      </c>
+      <c r="AJ163" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0338</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="0" t="inlineStr">
@@ -13674,6 +15304,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI164" s="0" t="inlineStr">
+        <is>
+          <t>v2-0469</t>
+        </is>
+      </c>
+      <c r="AJ164" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0469</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="0" t="inlineStr">
@@ -13753,6 +15393,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI165" s="0" t="inlineStr">
+        <is>
+          <t>v2-0469</t>
+        </is>
+      </c>
+      <c r="AJ165" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0469</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="0" t="inlineStr">
@@ -13832,6 +15482,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI166" s="0" t="inlineStr">
+        <is>
+          <t>v2-0199</t>
+        </is>
+      </c>
+      <c r="AJ166" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0199</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="0" t="inlineStr">
@@ -13911,6 +15571,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI167" s="0" t="inlineStr">
+        <is>
+          <t>v2-0206</t>
+        </is>
+      </c>
+      <c r="AJ167" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0206</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="0" t="inlineStr">
@@ -13990,6 +15660,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI168" s="0" t="inlineStr">
+        <is>
+          <t>v2-0236</t>
+        </is>
+      </c>
+      <c r="AJ168" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0236</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="0" t="inlineStr">
@@ -14069,6 +15749,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI169" s="0" t="inlineStr">
+        <is>
+          <t>v2-0238</t>
+        </is>
+      </c>
+      <c r="AJ169" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0238</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="0" t="inlineStr">
@@ -14148,6 +15838,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI170" s="0" t="inlineStr">
+        <is>
+          <t>v2-0253</t>
+        </is>
+      </c>
+      <c r="AJ170" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0253</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="0" t="inlineStr">
@@ -14227,6 +15927,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI171" s="0" t="inlineStr">
+        <is>
+          <t>v2-0254</t>
+        </is>
+      </c>
+      <c r="AJ171" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0254</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="172">
       <c r="A172" s="0" t="inlineStr">
@@ -14306,6 +16016,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI172" s="0" t="inlineStr">
+        <is>
+          <t>v2-0257</t>
+        </is>
+      </c>
+      <c r="AJ172" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0257</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="0" t="inlineStr">
@@ -14385,6 +16105,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI173" s="0" t="inlineStr">
+        <is>
+          <t>v2-0259</t>
+        </is>
+      </c>
+      <c r="AJ173" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0259</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="0" t="inlineStr">
@@ -14464,6 +16194,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI174" s="0" t="inlineStr">
+        <is>
+          <t>v2-0260</t>
+        </is>
+      </c>
+      <c r="AJ174" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0260</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="0" t="inlineStr">
@@ -14543,6 +16283,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI175" s="0" t="inlineStr">
+        <is>
+          <t>v2-0274</t>
+        </is>
+      </c>
+      <c r="AJ175" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0274</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="0" t="inlineStr">
@@ -14622,6 +16372,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI176" s="0" t="inlineStr">
+        <is>
+          <t>v2-0277</t>
+        </is>
+      </c>
+      <c r="AJ176" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0277</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="0" t="inlineStr">
@@ -14701,6 +16461,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI177" s="0" t="inlineStr">
+        <is>
+          <t>v2-0282</t>
+        </is>
+      </c>
+      <c r="AJ177" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0282</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="0" t="inlineStr">
@@ -14780,6 +16550,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI178" s="0" t="inlineStr">
+        <is>
+          <t>v2-0283</t>
+        </is>
+      </c>
+      <c r="AJ178" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0283</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="0" t="inlineStr">
@@ -14859,6 +16639,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI179" s="0" t="inlineStr">
+        <is>
+          <t>v2-0288</t>
+        </is>
+      </c>
+      <c r="AJ179" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0288</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="0" t="inlineStr">
@@ -14938,6 +16728,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI180" s="0" t="inlineStr">
+        <is>
+          <t>v2-0289</t>
+        </is>
+      </c>
+      <c r="AJ180" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0289</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="0" t="inlineStr">
@@ -15017,6 +16817,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI181" s="0" t="inlineStr">
+        <is>
+          <t>v2-0290</t>
+        </is>
+      </c>
+      <c r="AJ181" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0290</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="0" t="inlineStr">
@@ -15096,6 +16906,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI182" s="0" t="inlineStr">
+        <is>
+          <t>v2-0290</t>
+        </is>
+      </c>
+      <c r="AJ182" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0290</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="0" t="inlineStr">
@@ -15175,6 +16995,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI183" s="0" t="inlineStr">
+        <is>
+          <t>v2-0291</t>
+        </is>
+      </c>
+      <c r="AJ183" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0291</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="0" t="inlineStr">
@@ -15254,6 +17084,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI184" s="0" t="inlineStr">
+        <is>
+          <t>v2-0291</t>
+        </is>
+      </c>
+      <c r="AJ184" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0291</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="0" t="inlineStr">
@@ -15333,6 +17173,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI185" s="0" t="inlineStr">
+        <is>
+          <t>v2-0293</t>
+        </is>
+      </c>
+      <c r="AJ185" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0293</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="0" t="inlineStr">
@@ -15412,6 +17262,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI186" s="0" t="inlineStr">
+        <is>
+          <t>v2-0293</t>
+        </is>
+      </c>
+      <c r="AJ186" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0293</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="0" t="inlineStr">
@@ -15491,6 +17351,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI187" s="0" t="inlineStr">
+        <is>
+          <t>v2-0296</t>
+        </is>
+      </c>
+      <c r="AJ187" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0296</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="0" t="inlineStr">
@@ -15570,6 +17440,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI188" s="0" t="inlineStr">
+        <is>
+          <t>v2-0301</t>
+        </is>
+      </c>
+      <c r="AJ188" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0301</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="0" t="inlineStr">
@@ -15649,6 +17529,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI189" s="0" t="inlineStr">
+        <is>
+          <t>v2-0303</t>
+        </is>
+      </c>
+      <c r="AJ189" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0303</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="0" t="inlineStr">
@@ -15728,6 +17618,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI190" s="0" t="inlineStr">
+        <is>
+          <t>v2-0315</t>
+        </is>
+      </c>
+      <c r="AJ190" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0315</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="0" t="inlineStr">
@@ -15807,6 +17707,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI191" s="0" t="inlineStr">
+        <is>
+          <t>v2-0315</t>
+        </is>
+      </c>
+      <c r="AJ191" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0315</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="0" t="inlineStr">
@@ -15886,6 +17796,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI192" s="0" t="inlineStr">
+        <is>
+          <t>v2-0315</t>
+        </is>
+      </c>
+      <c r="AJ192" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0315</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="0" t="inlineStr">
@@ -15965,6 +17885,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI193" s="0" t="inlineStr">
+        <is>
+          <t>v2-0319</t>
+        </is>
+      </c>
+      <c r="AJ193" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0319</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="0" t="inlineStr">
@@ -16044,6 +17974,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI194" s="0" t="inlineStr">
+        <is>
+          <t>v2-0333</t>
+        </is>
+      </c>
+      <c r="AJ194" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0333</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="0" t="inlineStr">
@@ -16123,6 +18063,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI195" s="0" t="inlineStr">
+        <is>
+          <t>v2-0335</t>
+        </is>
+      </c>
+      <c r="AJ195" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0335</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="0" t="inlineStr">
@@ -16202,6 +18152,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI196" s="0" t="inlineStr">
+        <is>
+          <t>v2-0342</t>
+        </is>
+      </c>
+      <c r="AJ196" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0342</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="0" t="inlineStr">
@@ -16281,6 +18241,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI197" s="0" t="inlineStr">
+        <is>
+          <t>v2-0344</t>
+        </is>
+      </c>
+      <c r="AJ197" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0344</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="0" t="inlineStr">
@@ -16360,6 +18330,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI198" s="0" t="inlineStr">
+        <is>
+          <t>v2-0350</t>
+        </is>
+      </c>
+      <c r="AJ198" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0350</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="0" t="inlineStr">
@@ -16407,14 +18387,14 @@
       </c>
       <c r="L199" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M199" s="0">
-        <v>37.60980716</v>
+        <v>44.112229183</v>
       </c>
       <c r="N199" s="0">
-        <v>-94.27846556</v>
+        <v>-93.830152363</v>
       </c>
       <c r="O199" s="0">
         <v>7559</v>
@@ -16454,6 +18434,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI199" s="0" t="inlineStr">
+        <is>
+          <t>v2-0362</t>
+        </is>
+      </c>
+      <c r="AJ199" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0362</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="0" t="inlineStr">
@@ -16501,14 +18491,14 @@
       </c>
       <c r="L200" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M200" s="0">
-        <v>37.58580872</v>
+        <v>45.180347202</v>
       </c>
       <c r="N200" s="0">
-        <v>-94.31075281</v>
+        <v>-94.647391411</v>
       </c>
       <c r="O200" s="0">
         <v>7626</v>
@@ -16548,6 +18538,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI200" s="0" t="inlineStr">
+        <is>
+          <t>v2-0372</t>
+        </is>
+      </c>
+      <c r="AJ200" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0372</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="0" t="inlineStr">
@@ -16595,14 +18595,14 @@
       </c>
       <c r="L201" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M201" s="0">
-        <v>37.57800716</v>
+        <v>31.067473705</v>
       </c>
       <c r="N201" s="0">
-        <v>-94.27026556</v>
+        <v>-91.498601125</v>
       </c>
       <c r="O201" s="0">
         <v>7641</v>
@@ -16642,6 +18642,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI201" s="0" t="inlineStr">
+        <is>
+          <t>v2-0373</t>
+        </is>
+      </c>
+      <c r="AJ201" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0373</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="0" t="inlineStr">
@@ -16721,6 +18731,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI202" s="0" t="inlineStr">
+        <is>
+          <t>v2-0385</t>
+        </is>
+      </c>
+      <c r="AJ202" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0385</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="0" t="inlineStr">
@@ -16800,6 +18820,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI203" s="0" t="inlineStr">
+        <is>
+          <t>v2-0390</t>
+        </is>
+      </c>
+      <c r="AJ203" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0390</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="0" t="inlineStr">
@@ -16879,6 +18909,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI204" s="0" t="inlineStr">
+        <is>
+          <t>v2-0391</t>
+        </is>
+      </c>
+      <c r="AJ204" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0391</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="205">
       <c r="A205" s="0" t="inlineStr">
@@ -16958,6 +18998,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI205" s="0" t="inlineStr">
+        <is>
+          <t>v2-0399</t>
+        </is>
+      </c>
+      <c r="AJ205" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0399</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="0" t="inlineStr">
@@ -17005,14 +19055,14 @@
       </c>
       <c r="L206" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M206" s="0">
-        <v>44.0107503895</v>
+        <v>44.246504482</v>
       </c>
       <c r="N206" s="0">
-        <v>-78.859670109</v>
+        <v>-79.682134149</v>
       </c>
       <c r="O206" s="0">
         <v>7935</v>
@@ -17037,6 +19087,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI206" s="0" t="inlineStr">
+        <is>
+          <t>v2-0403</t>
+        </is>
+      </c>
+      <c r="AJ206" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0403</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="0" t="inlineStr">
@@ -17116,6 +19176,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI207" s="0" t="inlineStr">
+        <is>
+          <t>v2-0404</t>
+        </is>
+      </c>
+      <c r="AJ207" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0404</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="0" t="inlineStr">
@@ -17195,6 +19265,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI208" s="0" t="inlineStr">
+        <is>
+          <t>v2-0409</t>
+        </is>
+      </c>
+      <c r="AJ208" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0409</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="0" t="inlineStr">
@@ -17274,6 +19354,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI209" s="0" t="inlineStr">
+        <is>
+          <t>v2-0413</t>
+        </is>
+      </c>
+      <c r="AJ209" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0413</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="0" t="inlineStr">
@@ -17321,14 +19411,14 @@
       </c>
       <c r="L210" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M210" s="0">
-        <v>44.0065</v>
+        <v>40.080514248</v>
       </c>
       <c r="N210" s="0">
-        <v>-80.7935</v>
+        <v>-90.513265328</v>
       </c>
       <c r="O210" s="0">
         <v>8094</v>
@@ -17353,6 +19443,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI210" s="0" t="inlineStr">
+        <is>
+          <t>v2-0422</t>
+        </is>
+      </c>
+      <c r="AJ210" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0422</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="0" t="inlineStr">
@@ -17432,6 +19532,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI211" s="0" t="inlineStr">
+        <is>
+          <t>v2-0428</t>
+        </is>
+      </c>
+      <c r="AJ211" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0428</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="212">
       <c r="A212" s="0" t="inlineStr">
@@ -17511,6 +19621,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI212" s="0" t="inlineStr">
+        <is>
+          <t>v2-0451</t>
+        </is>
+      </c>
+      <c r="AJ212" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0451</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="0" t="inlineStr">
@@ -17590,6 +19710,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI213" s="0" t="inlineStr">
+        <is>
+          <t>v2-0452</t>
+        </is>
+      </c>
+      <c r="AJ213" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0452</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="0" t="inlineStr">
@@ -17669,6 +19799,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI214" s="0" t="inlineStr">
+        <is>
+          <t>v2-0453</t>
+        </is>
+      </c>
+      <c r="AJ214" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0453</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="0" t="inlineStr">
@@ -17716,14 +19856,14 @@
       </c>
       <c r="L215" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M215" s="0">
-        <v>40.8140033549</v>
+        <v>42.60589087</v>
       </c>
       <c r="N215" s="0">
-        <v>-84.338311949</v>
+        <v>-76.518173486</v>
       </c>
       <c r="O215" s="0">
         <v>8199</v>
@@ -17748,6 +19888,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI215" s="0" t="inlineStr">
+        <is>
+          <t>v2-0454</t>
+        </is>
+      </c>
+      <c r="AJ215" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0454</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="0" t="inlineStr">
@@ -17827,6 +19977,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI216" s="0" t="inlineStr">
+        <is>
+          <t>v2-0468</t>
+        </is>
+      </c>
+      <c r="AJ216" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0468</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="0" t="inlineStr">
@@ -17906,6 +20066,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI217" s="0" t="inlineStr">
+        <is>
+          <t>v2-0482</t>
+        </is>
+      </c>
+      <c r="AJ217" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0482</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="0" t="inlineStr">
@@ -17985,6 +20155,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI218" s="0" t="inlineStr">
+        <is>
+          <t>v2-0508</t>
+        </is>
+      </c>
+      <c r="AJ218" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0508</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="0" t="inlineStr">
@@ -18079,6 +20259,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI219" s="0" t="inlineStr">
+        <is>
+          <t>v2-0532</t>
+        </is>
+      </c>
+      <c r="AJ219" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0532</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="0" t="inlineStr">
@@ -18158,6 +20348,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI220" s="0" t="inlineStr">
+        <is>
+          <t>v2-0534</t>
+        </is>
+      </c>
+      <c r="AJ220" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0534</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="0" t="inlineStr">
@@ -18237,6 +20437,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI221" s="0" t="inlineStr">
+        <is>
+          <t>v2-0535</t>
+        </is>
+      </c>
+      <c r="AJ221" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0535</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="0" t="inlineStr">
@@ -18284,14 +20494,14 @@
       </c>
       <c r="L222" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M222" s="0">
-        <v>44.0846</v>
+        <v>41.559317705</v>
       </c>
       <c r="N222" s="0">
-        <v>-80.6154</v>
+        <v>-84.765622689</v>
       </c>
       <c r="O222" s="0">
         <v>8861</v>
@@ -18316,6 +20526,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI222" s="0" t="inlineStr">
+        <is>
+          <t>v2-0539</t>
+        </is>
+      </c>
+      <c r="AJ222" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0539</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="0" t="inlineStr">
@@ -18363,14 +20583,14 @@
       </c>
       <c r="L223" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M223" s="0">
-        <v>44.0849</v>
+        <v>32.871751248</v>
       </c>
       <c r="N223" s="0">
-        <v>-80.5151</v>
+        <v>-85.458067605</v>
       </c>
       <c r="O223" s="0">
         <v>8864</v>
@@ -18395,6 +20615,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI223" s="0" t="inlineStr">
+        <is>
+          <t>v2-0539</t>
+        </is>
+      </c>
+      <c r="AJ223" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0539</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="0" t="inlineStr">
@@ -18442,14 +20672,14 @@
       </c>
       <c r="L224" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M224" s="0">
-        <v>37.59410716</v>
+        <v>33.958072124</v>
       </c>
       <c r="N224" s="0">
-        <v>-94.30416556</v>
+        <v>-94.808434301</v>
       </c>
       <c r="O224" s="0">
         <v>8874</v>
@@ -18489,6 +20719,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI224" s="0" t="inlineStr">
+        <is>
+          <t>v2-0541</t>
+        </is>
+      </c>
+      <c r="AJ224" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0541</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="0" t="inlineStr">
@@ -18568,6 +20808,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI225" s="0" t="inlineStr">
+        <is>
+          <t>v2-0601</t>
+        </is>
+      </c>
+      <c r="AJ225" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0601</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="0" t="inlineStr">
@@ -18647,6 +20897,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI226" s="0" t="inlineStr">
+        <is>
+          <t>v2-0632</t>
+        </is>
+      </c>
+      <c r="AJ226" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_2-0632</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="227">
       <c r="A227" s="0" t="inlineStr">
@@ -18694,14 +20954,14 @@
       </c>
       <c r="L227" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M227" s="0">
-        <v>37.61570716</v>
+        <v>44.862627322</v>
       </c>
       <c r="N227" s="0">
-        <v>-94.32256556</v>
+        <v>-95.542239222</v>
       </c>
       <c r="O227" s="0">
         <v>9475</v>
@@ -18741,6 +21001,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI227" s="0" t="inlineStr">
+        <is>
+          <t>v3-0008</t>
+        </is>
+      </c>
+      <c r="AJ227" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0008</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="228">
       <c r="A228" s="0" t="inlineStr">
@@ -18820,6 +21090,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI228" s="0" t="inlineStr">
+        <is>
+          <t>v3-0009</t>
+        </is>
+      </c>
+      <c r="AJ228" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0009</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="0" t="inlineStr">
@@ -18867,14 +21147,14 @@
       </c>
       <c r="L229" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M229" s="0">
-        <v>37.56510716</v>
+        <v>43.028912493</v>
       </c>
       <c r="N229" s="0">
-        <v>-94.29316556</v>
+        <v>-97.116986536</v>
       </c>
       <c r="O229" s="0">
         <v>9569</v>
@@ -18914,6 +21194,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI229" s="0" t="inlineStr">
+        <is>
+          <t>v3-0022</t>
+        </is>
+      </c>
+      <c r="AJ229" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0022</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="230">
       <c r="A230" s="0" t="inlineStr">
@@ -18993,6 +21283,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI230" s="0" t="inlineStr">
+        <is>
+          <t>v3-0032</t>
+        </is>
+      </c>
+      <c r="AJ230" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0032</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="231">
       <c r="A231" s="0" t="inlineStr">
@@ -19072,6 +21372,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI231" s="0" t="inlineStr">
+        <is>
+          <t>v3-0032</t>
+        </is>
+      </c>
+      <c r="AJ231" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0032</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="232">
       <c r="A232" s="0" t="inlineStr">
@@ -19151,6 +21461,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI232" s="0" t="inlineStr">
+        <is>
+          <t>v3-0034</t>
+        </is>
+      </c>
+      <c r="AJ232" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0034</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="233">
       <c r="A233" s="0" t="inlineStr">
@@ -19230,6 +21550,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI233" s="0" t="inlineStr">
+        <is>
+          <t>v3-0043</t>
+        </is>
+      </c>
+      <c r="AJ233" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0043</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="234">
       <c r="A234" s="0" t="inlineStr">
@@ -19309,6 +21639,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI234" s="0" t="inlineStr">
+        <is>
+          <t>v3-0046</t>
+        </is>
+      </c>
+      <c r="AJ234" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0046</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="235">
       <c r="A235" s="0" t="inlineStr">
@@ -19388,6 +21728,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI235" s="0" t="inlineStr">
+        <is>
+          <t>v3-0374</t>
+        </is>
+      </c>
+      <c r="AJ235" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0374</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="236">
       <c r="A236" s="0" t="inlineStr">
@@ -19467,6 +21817,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI236" s="0" t="inlineStr">
+        <is>
+          <t>v3-0375</t>
+        </is>
+      </c>
+      <c r="AJ236" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0375</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="237">
       <c r="A237" s="0" t="inlineStr">
@@ -19546,6 +21906,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI237" s="0" t="inlineStr">
+        <is>
+          <t>v3-0376</t>
+        </is>
+      </c>
+      <c r="AJ237" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0376</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="238">
       <c r="A238" s="0" t="inlineStr">
@@ -19625,6 +21995,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI238" s="0" t="inlineStr">
+        <is>
+          <t>v3-0049</t>
+        </is>
+      </c>
+      <c r="AJ238" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0049</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="239">
       <c r="A239" s="0" t="inlineStr">
@@ -19704,6 +22084,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI239" s="0" t="inlineStr">
+        <is>
+          <t>v3-0056</t>
+        </is>
+      </c>
+      <c r="AJ239" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0056</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="240">
       <c r="A240" s="0" t="inlineStr">
@@ -19783,6 +22173,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI240" s="0" t="inlineStr">
+        <is>
+          <t>v3-0085</t>
+        </is>
+      </c>
+      <c r="AJ240" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0085</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="241">
       <c r="A241" s="0" t="inlineStr">
@@ -19877,6 +22277,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI241" s="0" t="inlineStr">
+        <is>
+          <t>v3-0091</t>
+        </is>
+      </c>
+      <c r="AJ241" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0091</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="242">
       <c r="A242" s="0" t="inlineStr">
@@ -19956,6 +22366,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI242" s="0" t="inlineStr">
+        <is>
+          <t>v3-0113</t>
+        </is>
+      </c>
+      <c r="AJ242" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0113</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="243">
       <c r="A243" s="0" t="inlineStr">
@@ -20035,6 +22455,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI243" s="0" t="inlineStr">
+        <is>
+          <t>v3-0253</t>
+        </is>
+      </c>
+      <c r="AJ243" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0253</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="244">
       <c r="A244" s="0" t="inlineStr">
@@ -20114,6 +22544,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI244" s="0" t="inlineStr">
+        <is>
+          <t>v3-0334</t>
+        </is>
+      </c>
+      <c r="AJ244" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0334</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="245">
       <c r="A245" s="0" t="inlineStr">
@@ -20193,6 +22633,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI245" s="0" t="inlineStr">
+        <is>
+          <t>v3-0092</t>
+        </is>
+      </c>
+      <c r="AJ245" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0092</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="246">
       <c r="A246" s="0" t="inlineStr">
@@ -20272,6 +22722,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI246" s="0" t="inlineStr">
+        <is>
+          <t>v3-0093</t>
+        </is>
+      </c>
+      <c r="AJ246" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0093</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="247">
       <c r="A247" s="0" t="inlineStr">
@@ -20351,6 +22811,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI247" s="0" t="inlineStr">
+        <is>
+          <t>v3-0114</t>
+        </is>
+      </c>
+      <c r="AJ247" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0114</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="248">
       <c r="A248" s="0" t="inlineStr">
@@ -20430,6 +22900,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI248" s="0" t="inlineStr">
+        <is>
+          <t>v3-0115</t>
+        </is>
+      </c>
+      <c r="AJ248" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0115</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="249">
       <c r="A249" s="0" t="inlineStr">
@@ -20509,6 +22989,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI249" s="0" t="inlineStr">
+        <is>
+          <t>v3-0115</t>
+        </is>
+      </c>
+      <c r="AJ249" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0115</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="250">
       <c r="A250" s="0" t="inlineStr">
@@ -20588,6 +23078,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI250" s="0" t="inlineStr">
+        <is>
+          <t>v3-0119</t>
+        </is>
+      </c>
+      <c r="AJ250" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0119</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="251">
       <c r="A251" s="0" t="inlineStr">
@@ -20667,6 +23167,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI251" s="0" t="inlineStr">
+        <is>
+          <t>v3-0130</t>
+        </is>
+      </c>
+      <c r="AJ251" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0130</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="252">
       <c r="A252" s="0" t="inlineStr">
@@ -20746,6 +23256,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI252" s="0" t="inlineStr">
+        <is>
+          <t>v3-0223</t>
+        </is>
+      </c>
+      <c r="AJ252" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0223</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="253">
       <c r="A253" s="0" t="inlineStr">
@@ -20793,14 +23313,14 @@
       </c>
       <c r="L253" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M253" s="0">
-        <v>44.156738859609</v>
+        <v>42.92591162</v>
       </c>
       <c r="N253" s="0">
-        <v>-78.713681638891</v>
+        <v>-74.886669988</v>
       </c>
       <c r="O253" s="0">
         <v>10783</v>
@@ -20825,6 +23345,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI253" s="0" t="inlineStr">
+        <is>
+          <t>v3-0225</t>
+        </is>
+      </c>
+      <c r="AJ253" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0225</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="254">
       <c r="A254" s="0" t="inlineStr">
@@ -20857,7 +23387,7 @@
       </c>
       <c r="G254" s="0" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="J254" s="0" t="inlineStr">
@@ -20872,14 +23402,14 @@
       </c>
       <c r="L254" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M254" s="0">
-        <v>37.58660716</v>
+        <v>31.797141794</v>
       </c>
       <c r="N254" s="0">
-        <v>-94.26166556</v>
+        <v>-96.066110567</v>
       </c>
       <c r="O254" s="0">
         <v>10827</v>
@@ -20919,6 +23449,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI254" s="0" t="inlineStr">
+        <is>
+          <t>v3-0229</t>
+        </is>
+      </c>
+      <c r="AJ254" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0229</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="255">
       <c r="A255" s="0" t="inlineStr">
@@ -20998,6 +23538,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI255" s="0" t="inlineStr">
+        <is>
+          <t>v3-0253</t>
+        </is>
+      </c>
+      <c r="AJ255" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0253</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="0" t="inlineStr">
@@ -21077,6 +23627,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI256" s="0" t="inlineStr">
+        <is>
+          <t>v3-0257</t>
+        </is>
+      </c>
+      <c r="AJ256" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0257</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="257">
       <c r="A257" s="0" t="inlineStr">
@@ -21156,6 +23716,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI257" s="0" t="inlineStr">
+        <is>
+          <t>v3-0273</t>
+        </is>
+      </c>
+      <c r="AJ257" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0273</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="0" t="inlineStr">
@@ -21235,6 +23805,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI258" s="0" t="inlineStr">
+        <is>
+          <t>v3-0273</t>
+        </is>
+      </c>
+      <c r="AJ258" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0273</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="259">
       <c r="A259" s="0" t="inlineStr">
@@ -21314,6 +23894,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI259" s="0" t="inlineStr">
+        <is>
+          <t>v3-0275</t>
+        </is>
+      </c>
+      <c r="AJ259" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0275</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="260">
       <c r="A260" s="0" t="inlineStr">
@@ -21393,6 +23983,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI260" s="0" t="inlineStr">
+        <is>
+          <t>v3-0275</t>
+        </is>
+      </c>
+      <c r="AJ260" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0275</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="261">
       <c r="A261" s="0" t="inlineStr">
@@ -21472,6 +24072,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI261" s="0" t="inlineStr">
+        <is>
+          <t>v3-0278</t>
+        </is>
+      </c>
+      <c r="AJ261" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0278</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="0" t="inlineStr">
@@ -21519,14 +24129,14 @@
       </c>
       <c r="L262" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M262" s="0">
-        <v>37.51490716</v>
+        <v>32.288397635</v>
       </c>
       <c r="N262" s="0">
-        <v>-94.37336556</v>
+        <v>-97.526465643</v>
       </c>
       <c r="O262" s="0">
         <v>11096</v>
@@ -21566,6 +24176,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI262" s="0" t="inlineStr">
+        <is>
+          <t>v3-0279</t>
+        </is>
+      </c>
+      <c r="AJ262" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0279</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="0" t="inlineStr">
@@ -21645,6 +24265,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI263" s="0" t="inlineStr">
+        <is>
+          <t>v3-0291</t>
+        </is>
+      </c>
+      <c r="AJ263" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0291</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="264">
       <c r="A264" s="0" t="inlineStr">
@@ -21692,14 +24322,14 @@
       </c>
       <c r="L264" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_well_placed</t>
         </is>
       </c>
       <c r="M264" s="0">
-        <v>31.2854</v>
+        <v>31.559087166</v>
       </c>
       <c r="N264" s="0">
-        <v>-90.4646</v>
+        <v>-91.379910871</v>
       </c>
       <c r="O264" s="0">
         <v>11183</v>
@@ -21724,6 +24354,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI264" s="0" t="inlineStr">
+        <is>
+          <t>v3-0291</t>
+        </is>
+      </c>
+      <c r="AJ264" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0291</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="0" t="inlineStr">
@@ -21771,14 +24411,14 @@
       </c>
       <c r="L265" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M265" s="0">
-        <v>30.7955</v>
+        <v>31.729479212</v>
       </c>
       <c r="N265" s="0">
-        <v>-92.5645</v>
+        <v>-93.066207273</v>
       </c>
       <c r="O265" s="0">
         <v>11184</v>
@@ -21803,6 +24443,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI265" s="0" t="inlineStr">
+        <is>
+          <t>v3-0294</t>
+        </is>
+      </c>
+      <c r="AJ265" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0294</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="266">
       <c r="A266" s="0" t="inlineStr">
@@ -21882,6 +24532,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI266" s="0" t="inlineStr">
+        <is>
+          <t>v3-0297</t>
+        </is>
+      </c>
+      <c r="AJ266" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0297</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="0" t="inlineStr">
@@ -21961,6 +24621,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI267" s="0" t="inlineStr">
+        <is>
+          <t>v3-0297</t>
+        </is>
+      </c>
+      <c r="AJ267" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0297</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="0" t="inlineStr">
@@ -22040,6 +24710,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI268" s="0" t="inlineStr">
+        <is>
+          <t>v3-0310</t>
+        </is>
+      </c>
+      <c r="AJ268" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0310</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="0" t="inlineStr">
@@ -22119,6 +24799,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI269" s="0" t="inlineStr">
+        <is>
+          <t>v3-0312</t>
+        </is>
+      </c>
+      <c r="AJ269" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0312</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="270">
       <c r="A270" s="0" t="inlineStr">
@@ -22166,14 +24856,14 @@
       </c>
       <c r="L270" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M270" s="0">
-        <v>44.0357</v>
+        <v>43.891939434</v>
       </c>
       <c r="N270" s="0">
-        <v>-79.9643</v>
+        <v>-84.099381301</v>
       </c>
       <c r="O270" s="0">
         <v>11386</v>
@@ -22198,6 +24888,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI270" s="0" t="inlineStr">
+        <is>
+          <t>v3-0342</t>
+        </is>
+      </c>
+      <c r="AJ270" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0342</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="0" t="inlineStr">
@@ -22277,6 +24977,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI271" s="0" t="inlineStr">
+        <is>
+          <t>v3-0350</t>
+        </is>
+      </c>
+      <c r="AJ271" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0350</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="0" t="inlineStr">
@@ -22356,6 +25066,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI272" s="0" t="inlineStr">
+        <is>
+          <t>v3-0358</t>
+        </is>
+      </c>
+      <c r="AJ272" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0358</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="273">
       <c r="A273" s="0" t="inlineStr">
@@ -22450,6 +25170,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI273" s="0" t="inlineStr">
+        <is>
+          <t>v3-0358</t>
+        </is>
+      </c>
+      <c r="AJ273" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0358</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="274">
       <c r="A274" s="0" t="inlineStr">
@@ -22529,6 +25259,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI274" s="0" t="inlineStr">
+        <is>
+          <t>v3-0366</t>
+        </is>
+      </c>
+      <c r="AJ274" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0366</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="275">
       <c r="A275" s="0" t="inlineStr">
@@ -22576,14 +25316,14 @@
       </c>
       <c r="L275" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M275" s="0">
-        <v>37.60200716</v>
+        <v>32.023867113</v>
       </c>
       <c r="N275" s="0">
-        <v>-94.26626556</v>
+        <v>-90.943801033</v>
       </c>
       <c r="O275" s="0">
         <v>11567</v>
@@ -22623,6 +25363,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI275" s="0" t="inlineStr">
+        <is>
+          <t>v3-0367</t>
+        </is>
+      </c>
+      <c r="AJ275" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0367</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="276">
       <c r="A276" s="0" t="inlineStr">
@@ -22702,6 +25452,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI276" s="0" t="inlineStr">
+        <is>
+          <t>v3-0370</t>
+        </is>
+      </c>
+      <c r="AJ276" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0370</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="277">
       <c r="A277" s="0" t="inlineStr">
@@ -22781,6 +25541,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI277" s="0" t="inlineStr">
+        <is>
+          <t>v3-0373</t>
+        </is>
+      </c>
+      <c r="AJ277" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0373</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="278">
       <c r="A278" s="0" t="inlineStr">
@@ -22860,6 +25630,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI278" s="0" t="inlineStr">
+        <is>
+          <t>v3-0379</t>
+        </is>
+      </c>
+      <c r="AJ278" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0379</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="279">
       <c r="A279" s="0" t="inlineStr">
@@ -22939,6 +25719,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI279" s="0" t="inlineStr">
+        <is>
+          <t>v3-0380</t>
+        </is>
+      </c>
+      <c r="AJ279" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0380</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="280">
       <c r="A280" s="0" t="inlineStr">
@@ -22986,14 +25776,14 @@
       </c>
       <c r="L280" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M280" s="0">
-        <v>44.0605</v>
+        <v>42.990685264</v>
       </c>
       <c r="N280" s="0">
-        <v>-80.3395</v>
+        <v>-75.343774833</v>
       </c>
       <c r="O280" s="0">
         <v>11620</v>
@@ -23018,6 +25808,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI280" s="0" t="inlineStr">
+        <is>
+          <t>v3-0381</t>
+        </is>
+      </c>
+      <c r="AJ280" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0381</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="281">
       <c r="A281" s="0" t="inlineStr">
@@ -23097,6 +25897,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI281" s="0" t="inlineStr">
+        <is>
+          <t>v3-0382</t>
+        </is>
+      </c>
+      <c r="AJ281" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0382</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="282">
       <c r="A282" s="0" t="inlineStr">
@@ -23176,6 +25986,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI282" s="0" t="inlineStr">
+        <is>
+          <t>v3-0382</t>
+        </is>
+      </c>
+      <c r="AJ282" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0382</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="283">
       <c r="A283" s="0" t="inlineStr">
@@ -23255,6 +26075,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI283" s="0" t="inlineStr">
+        <is>
+          <t>v3-0388</t>
+        </is>
+      </c>
+      <c r="AJ283" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0388</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="284">
       <c r="A284" s="0" t="inlineStr">
@@ -23334,6 +26164,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI284" s="0" t="inlineStr">
+        <is>
+          <t>v3-0388</t>
+        </is>
+      </c>
+      <c r="AJ284" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0388</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="285">
       <c r="A285" s="0" t="inlineStr">
@@ -23413,6 +26253,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI285" s="0" t="inlineStr">
+        <is>
+          <t>v3-0399</t>
+        </is>
+      </c>
+      <c r="AJ285" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0399</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="286">
       <c r="A286" s="0" t="inlineStr">
@@ -23492,6 +26342,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI286" s="0" t="inlineStr">
+        <is>
+          <t>v3-0399</t>
+        </is>
+      </c>
+      <c r="AJ286" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0399</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="287">
       <c r="A287" s="0" t="inlineStr">
@@ -23571,6 +26431,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI287" s="0" t="inlineStr">
+        <is>
+          <t>v3-0401</t>
+        </is>
+      </c>
+      <c r="AJ287" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0401</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="288">
       <c r="A288" s="0" t="inlineStr">
@@ -23650,6 +26520,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI288" s="0" t="inlineStr">
+        <is>
+          <t>v3-0406</t>
+        </is>
+      </c>
+      <c r="AJ288" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0406</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="289">
       <c r="A289" s="0" t="inlineStr">
@@ -23697,14 +26577,14 @@
       </c>
       <c r="L289" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M289" s="0">
-        <v>32.4479</v>
+        <v>40.574753261</v>
       </c>
       <c r="N289" s="0">
-        <v>-91.4521</v>
+        <v>-95.862202619</v>
       </c>
       <c r="O289" s="0">
         <v>11794</v>
@@ -23729,6 +26609,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI289" s="0" t="inlineStr">
+        <is>
+          <t>v3-0410</t>
+        </is>
+      </c>
+      <c r="AJ289" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0410</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="290">
       <c r="A290" s="0" t="inlineStr">
@@ -23776,14 +26666,14 @@
       </c>
       <c r="L290" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M290" s="0">
-        <v>37.62640716</v>
+        <v>40.694192192</v>
       </c>
       <c r="N290" s="0">
-        <v>-94.32186556</v>
+        <v>-96.111390968</v>
       </c>
       <c r="O290" s="0">
         <v>11797</v>
@@ -23823,6 +26713,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI290" s="0" t="inlineStr">
+        <is>
+          <t>v3-0410</t>
+        </is>
+      </c>
+      <c r="AJ290" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0410</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="291">
       <c r="A291" s="0" t="inlineStr">
@@ -23902,6 +26802,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI291" s="0" t="inlineStr">
+        <is>
+          <t>v3-0410</t>
+        </is>
+      </c>
+      <c r="AJ291" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0410</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="292">
       <c r="A292" s="0" t="inlineStr">
@@ -23981,6 +26891,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI292" s="0" t="inlineStr">
+        <is>
+          <t>v3-0411</t>
+        </is>
+      </c>
+      <c r="AJ292" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0411</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="293">
       <c r="A293" s="0" t="inlineStr">
@@ -24028,14 +26948,14 @@
       </c>
       <c r="L293" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M293" s="0">
-        <v>37.60900716</v>
+        <v>44.998228033</v>
       </c>
       <c r="N293" s="0">
-        <v>-94.23926556</v>
+        <v>-97.311122732</v>
       </c>
       <c r="O293" s="0">
         <v>11823</v>
@@ -24075,6 +26995,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI293" s="0" t="inlineStr">
+        <is>
+          <t>v3-0416</t>
+        </is>
+      </c>
+      <c r="AJ293" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0416</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="294">
       <c r="A294" s="0" t="inlineStr">
@@ -24122,14 +27052,14 @@
       </c>
       <c r="L294" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M294" s="0">
-        <v>37.60940716</v>
+        <v>33.495140847</v>
       </c>
       <c r="N294" s="0">
-        <v>-94.31886556</v>
+        <v>-93.844154176</v>
       </c>
       <c r="O294" s="0">
         <v>11827</v>
@@ -24169,6 +27099,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI294" s="0" t="inlineStr">
+        <is>
+          <t>v3-0416</t>
+        </is>
+      </c>
+      <c r="AJ294" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0416</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="295">
       <c r="A295" s="0" t="inlineStr">
@@ -24263,6 +27203,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI295" s="0" t="inlineStr">
+        <is>
+          <t>v3-0418</t>
+        </is>
+      </c>
+      <c r="AJ295" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0418</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="296">
       <c r="A296" s="0" t="inlineStr">
@@ -24310,14 +27260,14 @@
       </c>
       <c r="L296" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M296" s="0">
-        <v>44.0835</v>
+        <v>39.435457647</v>
       </c>
       <c r="N296" s="0">
-        <v>-81.1165</v>
+        <v>-87.364850438</v>
       </c>
       <c r="O296" s="0">
         <v>11850</v>
@@ -24342,6 +27292,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI296" s="0" t="inlineStr">
+        <is>
+          <t>v3-0419</t>
+        </is>
+      </c>
+      <c r="AJ296" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0419</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="297">
       <c r="A297" s="0" t="inlineStr">
@@ -24389,14 +27349,14 @@
       </c>
       <c r="L297" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M297" s="0">
-        <v>44.0837</v>
+        <v>31.137020478</v>
       </c>
       <c r="N297" s="0">
-        <v>-80.2163</v>
+        <v>-91.470607358</v>
       </c>
       <c r="O297" s="0">
         <v>11852</v>
@@ -24421,6 +27381,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI297" s="0" t="inlineStr">
+        <is>
+          <t>v3-0419</t>
+        </is>
+      </c>
+      <c r="AJ297" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0419</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="298">
       <c r="A298" s="0" t="inlineStr">
@@ -24472,10 +27442,10 @@
         </is>
       </c>
       <c r="M298" s="0">
-        <v>44.0848</v>
+        <v>42.323145881</v>
       </c>
       <c r="N298" s="0">
-        <v>-80.1152</v>
+        <v>-83.003024253</v>
       </c>
       <c r="O298" s="0">
         <v>11863</v>
@@ -24500,6 +27470,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI298" s="0" t="inlineStr">
+        <is>
+          <t>v3-0420</t>
+        </is>
+      </c>
+      <c r="AJ298" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0420</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="299">
       <c r="A299" s="0" t="inlineStr">
@@ -24579,6 +27559,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI299" s="0" t="inlineStr">
+        <is>
+          <t>v3-0420</t>
+        </is>
+      </c>
+      <c r="AJ299" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0420</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="300">
       <c r="A300" s="0" t="inlineStr">
@@ -24658,6 +27648,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI300" s="0" t="inlineStr">
+        <is>
+          <t>v3-0425</t>
+        </is>
+      </c>
+      <c r="AJ300" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0425</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="301">
       <c r="A301" s="0" t="inlineStr">
@@ -24737,6 +27737,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI301" s="0" t="inlineStr">
+        <is>
+          <t>v3-0425</t>
+        </is>
+      </c>
+      <c r="AJ301" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0425</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="302">
       <c r="A302" s="0" t="inlineStr">
@@ -24816,6 +27826,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI302" s="0" t="inlineStr">
+        <is>
+          <t>v3-0431</t>
+        </is>
+      </c>
+      <c r="AJ302" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0431</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="303">
       <c r="A303" s="0" t="inlineStr">
@@ -24895,6 +27915,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI303" s="0" t="inlineStr">
+        <is>
+          <t>v3-0431</t>
+        </is>
+      </c>
+      <c r="AJ303" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0431</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="304">
       <c r="A304" s="0" t="inlineStr">
@@ -24974,6 +28004,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI304" s="0" t="inlineStr">
+        <is>
+          <t>v3-0433</t>
+        </is>
+      </c>
+      <c r="AJ304" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0433</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="305">
       <c r="A305" s="0" t="inlineStr">
@@ -25053,6 +28093,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI305" s="0" t="inlineStr">
+        <is>
+          <t>v3-0435</t>
+        </is>
+      </c>
+      <c r="AJ305" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0435</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="306">
       <c r="A306" s="0" t="inlineStr">
@@ -25132,6 +28182,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI306" s="0" t="inlineStr">
+        <is>
+          <t>v3-0438</t>
+        </is>
+      </c>
+      <c r="AJ306" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0438</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="307">
       <c r="A307" s="0" t="inlineStr">
@@ -25221,6 +28281,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI307" s="0" t="inlineStr">
+        <is>
+          <t>v3-0452</t>
+        </is>
+      </c>
+      <c r="AJ307" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0452</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="308">
       <c r="A308" s="0" t="inlineStr">
@@ -25300,6 +28370,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI308" s="0" t="inlineStr">
+        <is>
+          <t>v3-0455</t>
+        </is>
+      </c>
+      <c r="AJ308" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0455</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="309">
       <c r="A309" s="0" t="inlineStr">
@@ -25379,6 +28459,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI309" s="0" t="inlineStr">
+        <is>
+          <t>v3-0457</t>
+        </is>
+      </c>
+      <c r="AJ309" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0457</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="310">
       <c r="A310" s="0" t="inlineStr">
@@ -25426,14 +28516,14 @@
       </c>
       <c r="L310" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M310" s="0">
-        <v>40.0944</v>
+        <v>41.699410042</v>
       </c>
       <c r="N310" s="0">
-        <v>-83.9056</v>
+        <v>-87.677961933</v>
       </c>
       <c r="O310" s="0">
         <v>11959</v>
@@ -25458,6 +28548,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI310" s="0" t="inlineStr">
+        <is>
+          <t>v3-0457</t>
+        </is>
+      </c>
+      <c r="AJ310" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0457</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="311">
       <c r="A311" s="0" t="inlineStr">
@@ -25505,14 +28605,14 @@
       </c>
       <c r="L311" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M311" s="0">
-        <v>40.0947</v>
+        <v>41.850570866</v>
       </c>
       <c r="N311" s="0">
-        <v>-84.9053</v>
+        <v>-70.845794515</v>
       </c>
       <c r="O311" s="0">
         <v>11962</v>
@@ -25537,6 +28637,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI311" s="0" t="inlineStr">
+        <is>
+          <t>v3-0458</t>
+        </is>
+      </c>
+      <c r="AJ311" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0458</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="312">
       <c r="A312" s="0" t="inlineStr">
@@ -25616,6 +28726,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI312" s="0" t="inlineStr">
+        <is>
+          <t>v3-0458</t>
+        </is>
+      </c>
+      <c r="AJ312" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0458</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="313">
       <c r="A313" s="0" t="inlineStr">
@@ -25695,6 +28815,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI313" s="0" t="inlineStr">
+        <is>
+          <t>v3-0459</t>
+        </is>
+      </c>
+      <c r="AJ313" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0459</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="314">
       <c r="A314" s="0" t="inlineStr">
@@ -25774,6 +28904,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI314" s="0" t="inlineStr">
+        <is>
+          <t>v3-0463</t>
+        </is>
+      </c>
+      <c r="AJ314" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0463</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="315">
       <c r="A315" s="0" t="inlineStr">
@@ -25821,14 +28961,14 @@
       </c>
       <c r="L315" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M315" s="0">
-        <v>41.0683</v>
+        <v>37.995739721</v>
       </c>
       <c r="N315" s="0">
-        <v>-91.9817</v>
+        <v>-89.849378663</v>
       </c>
       <c r="O315" s="0">
         <v>11998</v>
@@ -25853,6 +28993,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI315" s="0" t="inlineStr">
+        <is>
+          <t>v3-0474</t>
+        </is>
+      </c>
+      <c r="AJ315" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0474</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="316">
       <c r="A316" s="0" t="inlineStr">
@@ -25932,6 +29082,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI316" s="0" t="inlineStr">
+        <is>
+          <t>v3-0476</t>
+        </is>
+      </c>
+      <c r="AJ316" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0476</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="317">
       <c r="A317" s="0" t="inlineStr">
@@ -26011,6 +29171,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI317" s="0" t="inlineStr">
+        <is>
+          <t>v3-0480</t>
+        </is>
+      </c>
+      <c r="AJ317" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0480</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="318">
       <c r="A318" s="0" t="inlineStr">
@@ -26090,6 +29260,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI318" s="0" t="inlineStr">
+        <is>
+          <t>v3-0482</t>
+        </is>
+      </c>
+      <c r="AJ318" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0482</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="319">
       <c r="A319" s="0" t="inlineStr">
@@ -26169,6 +29349,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI319" s="0" t="inlineStr">
+        <is>
+          <t>v3-0485</t>
+        </is>
+      </c>
+      <c r="AJ319" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0485</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="320">
       <c r="A320" s="0" t="inlineStr">
@@ -26248,6 +29438,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI320" s="0" t="inlineStr">
+        <is>
+          <t>v3-0486</t>
+        </is>
+      </c>
+      <c r="AJ320" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0486</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="321">
       <c r="A321" s="0" t="inlineStr">
@@ -26327,6 +29527,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI321" s="0" t="inlineStr">
+        <is>
+          <t>v3-0487</t>
+        </is>
+      </c>
+      <c r="AJ321" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_3-0487</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="322">
       <c r="A322" s="0" t="inlineStr">
@@ -26406,6 +29616,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI322" s="0" t="inlineStr">
+        <is>
+          <t>v4-0013</t>
+        </is>
+      </c>
+      <c r="AJ322" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0013</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="323">
       <c r="A323" s="0" t="inlineStr">
@@ -26485,6 +29705,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI323" s="0" t="inlineStr">
+        <is>
+          <t>v4-0013</t>
+        </is>
+      </c>
+      <c r="AJ323" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0013</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="324">
       <c r="A324" s="0" t="inlineStr">
@@ -26564,6 +29794,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI324" s="0" t="inlineStr">
+        <is>
+          <t>v4-0014</t>
+        </is>
+      </c>
+      <c r="AJ324" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0014</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="325">
       <c r="A325" s="0" t="inlineStr">
@@ -26643,6 +29883,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI325" s="0" t="inlineStr">
+        <is>
+          <t>v4-0019</t>
+        </is>
+      </c>
+      <c r="AJ325" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0019</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="326">
       <c r="A326" s="0" t="inlineStr">
@@ -26722,6 +29972,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI326" s="0" t="inlineStr">
+        <is>
+          <t>v4-0025</t>
+        </is>
+      </c>
+      <c r="AJ326" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0025</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="327">
       <c r="A327" s="0" t="inlineStr">
@@ -26801,6 +30061,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI327" s="0" t="inlineStr">
+        <is>
+          <t>v4-0027</t>
+        </is>
+      </c>
+      <c r="AJ327" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0027</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="328">
       <c r="A328" s="0" t="inlineStr">
@@ -26880,6 +30150,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI328" s="0" t="inlineStr">
+        <is>
+          <t>v4-0027</t>
+        </is>
+      </c>
+      <c r="AJ328" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0027</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="329">
       <c r="A329" s="0" t="inlineStr">
@@ -26959,6 +30239,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI329" s="0" t="inlineStr">
+        <is>
+          <t>v4-0049</t>
+        </is>
+      </c>
+      <c r="AJ329" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0049</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="330">
       <c r="A330" s="0" t="inlineStr">
@@ -27038,6 +30328,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI330" s="0" t="inlineStr">
+        <is>
+          <t>v4-0051</t>
+        </is>
+      </c>
+      <c r="AJ330" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0051</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="331">
       <c r="A331" s="0" t="inlineStr">
@@ -27085,14 +30385,14 @@
       </c>
       <c r="L331" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M331" s="0">
-        <v>34.75905901</v>
+        <v>42.26638865</v>
       </c>
       <c r="N331" s="0">
-        <v>-92.70163294</v>
+        <v>-99.009800464</v>
       </c>
       <c r="O331" s="0">
         <v>12363</v>
@@ -27132,6 +30432,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI331" s="0" t="inlineStr">
+        <is>
+          <t>v4-0052</t>
+        </is>
+      </c>
+      <c r="AJ331" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0052</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="332">
       <c r="A332" s="0" t="inlineStr">
@@ -27179,14 +30489,14 @@
       </c>
       <c r="L332" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M332" s="0">
-        <v>37.54310716</v>
+        <v>42.210632037</v>
       </c>
       <c r="N332" s="0">
-        <v>-94.28516556</v>
+        <v>-98.731701962</v>
       </c>
       <c r="O332" s="0">
         <v>12364</v>
@@ -27226,6 +30536,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI332" s="0" t="inlineStr">
+        <is>
+          <t>v4-0052</t>
+        </is>
+      </c>
+      <c r="AJ332" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0052</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="333">
       <c r="A333" s="0" t="inlineStr">
@@ -27273,14 +30593,14 @@
       </c>
       <c r="L333" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M333" s="0">
-        <v>37.54330716</v>
+        <v>39.149415166</v>
       </c>
       <c r="N333" s="0">
-        <v>-94.36496556</v>
+        <v>-93.10261909</v>
       </c>
       <c r="O333" s="0">
         <v>12366</v>
@@ -27320,6 +30640,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI333" s="0" t="inlineStr">
+        <is>
+          <t>v4-0053</t>
+        </is>
+      </c>
+      <c r="AJ333" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0053</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="334">
       <c r="A334" s="0" t="inlineStr">
@@ -27367,14 +30697,14 @@
       </c>
       <c r="L334" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M334" s="0">
-        <v>34.76696944</v>
+        <v>41.513504388</v>
       </c>
       <c r="N334" s="0">
-        <v>-92.72006899</v>
+        <v>-97.276302799</v>
       </c>
       <c r="O334" s="0">
         <v>12367</v>
@@ -27414,6 +30744,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI334" s="0" t="inlineStr">
+        <is>
+          <t>v4-0053</t>
+        </is>
+      </c>
+      <c r="AJ334" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0053</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="335">
       <c r="A335" s="0" t="inlineStr">
@@ -27493,6 +30833,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI335" s="0" t="inlineStr">
+        <is>
+          <t>v4-0322</t>
+        </is>
+      </c>
+      <c r="AJ335" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0322</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="336">
       <c r="A336" s="0" t="inlineStr">
@@ -27572,6 +30922,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI336" s="0" t="inlineStr">
+        <is>
+          <t>v4-0053</t>
+        </is>
+      </c>
+      <c r="AJ336" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0053</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="337">
       <c r="A337" s="0" t="inlineStr">
@@ -27651,6 +31011,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI337" s="0" t="inlineStr">
+        <is>
+          <t>v4-0053</t>
+        </is>
+      </c>
+      <c r="AJ337" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0053</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="338">
       <c r="A338" s="0" t="inlineStr">
@@ -27730,6 +31100,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI338" s="0" t="inlineStr">
+        <is>
+          <t>v4-0057</t>
+        </is>
+      </c>
+      <c r="AJ338" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0057</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="339">
       <c r="A339" s="0" t="inlineStr">
@@ -27809,6 +31189,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI339" s="0" t="inlineStr">
+        <is>
+          <t>v4-0062</t>
+        </is>
+      </c>
+      <c r="AJ339" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0062</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="340">
       <c r="A340" s="0" t="inlineStr">
@@ -27888,6 +31278,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI340" s="0" t="inlineStr">
+        <is>
+          <t>v4-0092</t>
+        </is>
+      </c>
+      <c r="AJ340" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0092</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="341">
       <c r="A341" s="0" t="inlineStr">
@@ -27967,6 +31367,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI341" s="0" t="inlineStr">
+        <is>
+          <t>v4-0094</t>
+        </is>
+      </c>
+      <c r="AJ341" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0094</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="342">
       <c r="A342" s="0" t="inlineStr">
@@ -28046,6 +31456,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI342" s="0" t="inlineStr">
+        <is>
+          <t>v4-0103</t>
+        </is>
+      </c>
+      <c r="AJ342" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0103</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="343">
       <c r="A343" s="0" t="inlineStr">
@@ -28125,6 +31545,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI343" s="0" t="inlineStr">
+        <is>
+          <t>v4-0103</t>
+        </is>
+      </c>
+      <c r="AJ343" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0103</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="344">
       <c r="A344" s="0" t="inlineStr">
@@ -28204,6 +31634,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI344" s="0" t="inlineStr">
+        <is>
+          <t>v4-0106</t>
+        </is>
+      </c>
+      <c r="AJ344" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0106</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="345">
       <c r="A345" s="0" t="inlineStr">
@@ -28251,14 +31691,14 @@
       </c>
       <c r="L345" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M345" s="0">
-        <v>37.56630716</v>
+        <v>30.875204778</v>
       </c>
       <c r="N345" s="0">
-        <v>-94.25196556</v>
+        <v>-89.82713516</v>
       </c>
       <c r="O345" s="0">
         <v>12681</v>
@@ -28298,6 +31738,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI345" s="0" t="inlineStr">
+        <is>
+          <t>v4-0106</t>
+        </is>
+      </c>
+      <c r="AJ345" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0106</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="346">
       <c r="A346" s="0" t="inlineStr">
@@ -28377,6 +31827,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI346" s="0" t="inlineStr">
+        <is>
+          <t>v4-0111</t>
+        </is>
+      </c>
+      <c r="AJ346" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0111</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="347">
       <c r="A347" s="0" t="inlineStr">
@@ -28456,6 +31916,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI347" s="0" t="inlineStr">
+        <is>
+          <t>v4-0115</t>
+        </is>
+      </c>
+      <c r="AJ347" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0115</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="348">
       <c r="A348" s="0" t="inlineStr">
@@ -28535,6 +32005,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI348" s="0" t="inlineStr">
+        <is>
+          <t>v4-0127</t>
+        </is>
+      </c>
+      <c r="AJ348" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0127</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="349">
       <c r="A349" s="0" t="inlineStr">
@@ -28614,6 +32094,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI349" s="0" t="inlineStr">
+        <is>
+          <t>v4-0128</t>
+        </is>
+      </c>
+      <c r="AJ349" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0128</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="350">
       <c r="A350" s="0" t="inlineStr">
@@ -28693,6 +32183,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI350" s="0" t="inlineStr">
+        <is>
+          <t>v4-0135</t>
+        </is>
+      </c>
+      <c r="AJ350" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0135</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="351">
       <c r="A351" s="0" t="inlineStr">
@@ -28772,6 +32272,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI351" s="0" t="inlineStr">
+        <is>
+          <t>v4-0144</t>
+        </is>
+      </c>
+      <c r="AJ351" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0144</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="352">
       <c r="A352" s="0" t="inlineStr">
@@ -28851,6 +32361,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI352" s="0" t="inlineStr">
+        <is>
+          <t>v4-0154</t>
+        </is>
+      </c>
+      <c r="AJ352" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0154</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="353">
       <c r="A353" s="0" t="inlineStr">
@@ -28930,6 +32450,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI353" s="0" t="inlineStr">
+        <is>
+          <t>v4-0155</t>
+        </is>
+      </c>
+      <c r="AJ353" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0155</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="354">
       <c r="A354" s="0" t="inlineStr">
@@ -29009,6 +32539,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI354" s="0" t="inlineStr">
+        <is>
+          <t>v4-0159</t>
+        </is>
+      </c>
+      <c r="AJ354" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0159</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="355">
       <c r="A355" s="0" t="inlineStr">
@@ -29088,6 +32628,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI355" s="0" t="inlineStr">
+        <is>
+          <t>v4-0198</t>
+        </is>
+      </c>
+      <c r="AJ355" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0198</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="356">
       <c r="A356" s="0" t="inlineStr">
@@ -29167,6 +32717,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI356" s="0" t="inlineStr">
+        <is>
+          <t>v4-0199</t>
+        </is>
+      </c>
+      <c r="AJ356" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0199</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="357">
       <c r="A357" s="0" t="inlineStr">
@@ -29246,6 +32806,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI357" s="0" t="inlineStr">
+        <is>
+          <t>v4-0200</t>
+        </is>
+      </c>
+      <c r="AJ357" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0200</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="358">
       <c r="A358" s="0" t="inlineStr">
@@ -29325,6 +32895,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI358" s="0" t="inlineStr">
+        <is>
+          <t>v4-0200</t>
+        </is>
+      </c>
+      <c r="AJ358" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0200</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="359">
       <c r="A359" s="0" t="inlineStr">
@@ -29404,6 +32984,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI359" s="0" t="inlineStr">
+        <is>
+          <t>v4-0205</t>
+        </is>
+      </c>
+      <c r="AJ359" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0205</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="360">
       <c r="A360" s="0" t="inlineStr">
@@ -29483,6 +33073,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI360" s="0" t="inlineStr">
+        <is>
+          <t>v4-0211</t>
+        </is>
+      </c>
+      <c r="AJ360" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0211</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="361">
       <c r="A361" s="0" t="inlineStr">
@@ -29562,6 +33162,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI361" s="0" t="inlineStr">
+        <is>
+          <t>v4-0211</t>
+        </is>
+      </c>
+      <c r="AJ361" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0211</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="362">
       <c r="A362" s="0" t="inlineStr">
@@ -29641,6 +33251,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI362" s="0" t="inlineStr">
+        <is>
+          <t>v4-0431</t>
+        </is>
+      </c>
+      <c r="AJ362" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0431</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="363">
       <c r="A363" s="0" t="inlineStr">
@@ -29720,6 +33340,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI363" s="0" t="inlineStr">
+        <is>
+          <t>v4-0221</t>
+        </is>
+      </c>
+      <c r="AJ363" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0221</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="364">
       <c r="A364" s="0" t="inlineStr">
@@ -29799,6 +33429,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI364" s="0" t="inlineStr">
+        <is>
+          <t>v4-0221</t>
+        </is>
+      </c>
+      <c r="AJ364" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0221</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="365">
       <c r="A365" s="0" t="inlineStr">
@@ -29878,6 +33518,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI365" s="0" t="inlineStr">
+        <is>
+          <t>v4-0226</t>
+        </is>
+      </c>
+      <c r="AJ365" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0226</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="366">
       <c r="A366" s="0" t="inlineStr">
@@ -29957,6 +33607,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI366" s="0" t="inlineStr">
+        <is>
+          <t>v4-0228</t>
+        </is>
+      </c>
+      <c r="AJ366" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0228</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="367">
       <c r="A367" s="0" t="inlineStr">
@@ -30036,6 +33696,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI367" s="0" t="inlineStr">
+        <is>
+          <t>v4-0233</t>
+        </is>
+      </c>
+      <c r="AJ367" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0233</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="368">
       <c r="A368" s="0" t="inlineStr">
@@ -30115,6 +33785,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI368" s="0" t="inlineStr">
+        <is>
+          <t>v4-0248</t>
+        </is>
+      </c>
+      <c r="AJ368" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0248</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="369">
       <c r="A369" s="0" t="inlineStr">
@@ -30194,6 +33874,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI369" s="0" t="inlineStr">
+        <is>
+          <t>v4-0276</t>
+        </is>
+      </c>
+      <c r="AJ369" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0276</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="370">
       <c r="A370" s="0" t="inlineStr">
@@ -30245,10 +33935,10 @@
         </is>
       </c>
       <c r="M370" s="0">
-        <v>44.0676</v>
+        <v>42.210494711</v>
       </c>
       <c r="N370" s="0">
-        <v>-80.0324</v>
+        <v>-83.264350056</v>
       </c>
       <c r="O370" s="0">
         <v>13776</v>
@@ -30273,6 +33963,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI370" s="0" t="inlineStr">
+        <is>
+          <t>v4-0293</t>
+        </is>
+      </c>
+      <c r="AJ370" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0293</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="371">
       <c r="A371" s="0" t="inlineStr">
@@ -30352,6 +34052,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI371" s="0" t="inlineStr">
+        <is>
+          <t>v4-0294</t>
+        </is>
+      </c>
+      <c r="AJ371" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0294</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="372">
       <c r="A372" s="0" t="inlineStr">
@@ -30431,6 +34141,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI372" s="0" t="inlineStr">
+        <is>
+          <t>v4-0318</t>
+        </is>
+      </c>
+      <c r="AJ372" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0318</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="373">
       <c r="A373" s="0" t="inlineStr">
@@ -30510,6 +34230,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI373" s="0" t="inlineStr">
+        <is>
+          <t>v4-0325</t>
+        </is>
+      </c>
+      <c r="AJ373" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0325</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="374">
       <c r="A374" s="0" t="inlineStr">
@@ -30589,6 +34319,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI374" s="0" t="inlineStr">
+        <is>
+          <t>v4-0327</t>
+        </is>
+      </c>
+      <c r="AJ374" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0327</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="375">
       <c r="A375" s="0" t="inlineStr">
@@ -30668,6 +34408,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI375" s="0" t="inlineStr">
+        <is>
+          <t>v4-0328</t>
+        </is>
+      </c>
+      <c r="AJ375" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0328</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="376">
       <c r="A376" s="0" t="inlineStr">
@@ -30747,6 +34497,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI376" s="0" t="inlineStr">
+        <is>
+          <t>v4-0330</t>
+        </is>
+      </c>
+      <c r="AJ376" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0330</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="377">
       <c r="A377" s="0" t="inlineStr">
@@ -30826,6 +34586,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI377" s="0" t="inlineStr">
+        <is>
+          <t>v4-0330</t>
+        </is>
+      </c>
+      <c r="AJ377" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0330</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="378">
       <c r="A378" s="0" t="inlineStr">
@@ -30905,6 +34675,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI378" s="0" t="inlineStr">
+        <is>
+          <t>v4-0332</t>
+        </is>
+      </c>
+      <c r="AJ378" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0332</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="379">
       <c r="A379" s="0" t="inlineStr">
@@ -30999,6 +34779,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI379" s="0" t="inlineStr">
+        <is>
+          <t>v4-0338</t>
+        </is>
+      </c>
+      <c r="AJ379" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0338</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="380">
       <c r="A380" s="0" t="inlineStr">
@@ -31078,6 +34868,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI380" s="0" t="inlineStr">
+        <is>
+          <t>v4-0341</t>
+        </is>
+      </c>
+      <c r="AJ380" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0341</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="381">
       <c r="A381" s="0" t="inlineStr">
@@ -31157,6 +34957,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI381" s="0" t="inlineStr">
+        <is>
+          <t>v4-0341</t>
+        </is>
+      </c>
+      <c r="AJ381" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0341</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="382">
       <c r="A382" s="0" t="inlineStr">
@@ -31236,6 +35046,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI382" s="0" t="inlineStr">
+        <is>
+          <t>v4-0351</t>
+        </is>
+      </c>
+      <c r="AJ382" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0351</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="383">
       <c r="A383" s="0" t="inlineStr">
@@ -31283,14 +35103,14 @@
       </c>
       <c r="L383" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M383" s="0">
-        <v>37.67570716</v>
+        <v>32.27738195</v>
       </c>
       <c r="N383" s="0">
-        <v>-94.25256556</v>
+        <v>-95.35696624</v>
       </c>
       <c r="O383" s="0">
         <v>14062</v>
@@ -31330,6 +35150,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI383" s="0" t="inlineStr">
+        <is>
+          <t>v4-0353</t>
+        </is>
+      </c>
+      <c r="AJ383" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0353</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="384">
       <c r="A384" s="0" t="inlineStr">
@@ -31409,6 +35239,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI384" s="0" t="inlineStr">
+        <is>
+          <t>v4-0355</t>
+        </is>
+      </c>
+      <c r="AJ384" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0355</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="385">
       <c r="A385" s="0" t="inlineStr">
@@ -31488,6 +35328,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI385" s="0" t="inlineStr">
+        <is>
+          <t>v4-0356</t>
+        </is>
+      </c>
+      <c r="AJ385" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0356</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="386">
       <c r="A386" s="0" t="inlineStr">
@@ -31567,6 +35417,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI386" s="0" t="inlineStr">
+        <is>
+          <t>v4-0357</t>
+        </is>
+      </c>
+      <c r="AJ386" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0357</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="387">
       <c r="A387" s="0" t="inlineStr">
@@ -31646,6 +35506,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI387" s="0" t="inlineStr">
+        <is>
+          <t>v4-0358</t>
+        </is>
+      </c>
+      <c r="AJ387" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0358</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="388">
       <c r="A388" s="0" t="inlineStr">
@@ -31725,6 +35595,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI388" s="0" t="inlineStr">
+        <is>
+          <t>v4-0359</t>
+        </is>
+      </c>
+      <c r="AJ388" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0359</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="389">
       <c r="A389" s="0" t="inlineStr">
@@ -31804,6 +35684,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI389" s="0" t="inlineStr">
+        <is>
+          <t>v4-0361</t>
+        </is>
+      </c>
+      <c r="AJ389" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0361</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="390">
       <c r="A390" s="0" t="inlineStr">
@@ -31883,6 +35773,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI390" s="0" t="inlineStr">
+        <is>
+          <t>v4-0363</t>
+        </is>
+      </c>
+      <c r="AJ390" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0363</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="391">
       <c r="A391" s="0" t="inlineStr">
@@ -31962,6 +35862,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI391" s="0" t="inlineStr">
+        <is>
+          <t>v4-0363</t>
+        </is>
+      </c>
+      <c r="AJ391" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0363</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="392">
       <c r="A392" s="0" t="inlineStr">
@@ -32041,6 +35951,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI392" s="0" t="inlineStr">
+        <is>
+          <t>v4-0363</t>
+        </is>
+      </c>
+      <c r="AJ392" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0363</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="393">
       <c r="A393" s="0" t="inlineStr">
@@ -32120,6 +36040,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI393" s="0" t="inlineStr">
+        <is>
+          <t>v4-0363</t>
+        </is>
+      </c>
+      <c r="AJ393" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0363</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="394">
       <c r="A394" s="0" t="inlineStr">
@@ -32199,6 +36129,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI394" s="0" t="inlineStr">
+        <is>
+          <t>v5-0043</t>
+        </is>
+      </c>
+      <c r="AJ394" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0043</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="395">
       <c r="A395" s="0" t="inlineStr">
@@ -32278,6 +36218,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI395" s="0" t="inlineStr">
+        <is>
+          <t>v5-0232</t>
+        </is>
+      </c>
+      <c r="AJ395" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0232</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="396">
       <c r="A396" s="0" t="inlineStr">
@@ -32357,6 +36307,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI396" s="0" t="inlineStr">
+        <is>
+          <t>v5-0361</t>
+        </is>
+      </c>
+      <c r="AJ396" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0361</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="397">
       <c r="A397" s="0" t="inlineStr">
@@ -32431,6 +36391,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI397" s="0" t="inlineStr">
+        <is>
+          <t>v5-0362</t>
+        </is>
+      </c>
+      <c r="AJ397" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0362</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="398">
       <c r="A398" s="0" t="inlineStr">
@@ -32510,6 +36480,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI398" s="0" t="inlineStr">
+        <is>
+          <t>v4-0451</t>
+        </is>
+      </c>
+      <c r="AJ398" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0451</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="399">
       <c r="A399" s="0" t="inlineStr">
@@ -32589,6 +36569,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI399" s="0" t="inlineStr">
+        <is>
+          <t>v4-0458</t>
+        </is>
+      </c>
+      <c r="AJ399" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0458</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="400">
       <c r="A400" s="0" t="inlineStr">
@@ -32668,6 +36658,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI400" s="0" t="inlineStr">
+        <is>
+          <t>v4-0474</t>
+        </is>
+      </c>
+      <c r="AJ400" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0474</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="401">
       <c r="A401" s="0" t="inlineStr">
@@ -32747,6 +36747,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI401" s="0" t="inlineStr">
+        <is>
+          <t>v4-0514</t>
+        </is>
+      </c>
+      <c r="AJ401" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0514</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="402">
       <c r="A402" s="0" t="inlineStr">
@@ -32826,6 +36836,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI402" s="0" t="inlineStr">
+        <is>
+          <t>v4-0516</t>
+        </is>
+      </c>
+      <c r="AJ402" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0516</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="403">
       <c r="A403" s="0" t="inlineStr">
@@ -32905,6 +36925,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI403" s="0" t="inlineStr">
+        <is>
+          <t>v4-0518</t>
+        </is>
+      </c>
+      <c r="AJ403" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0518</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="404">
       <c r="A404" s="0" t="inlineStr">
@@ -32984,6 +37014,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI404" s="0" t="inlineStr">
+        <is>
+          <t>v4-0520</t>
+        </is>
+      </c>
+      <c r="AJ404" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0520</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="405">
       <c r="A405" s="0" t="inlineStr">
@@ -33063,6 +37103,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI405" s="0" t="inlineStr">
+        <is>
+          <t>v4-0538</t>
+        </is>
+      </c>
+      <c r="AJ405" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0538</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="406">
       <c r="A406" s="0" t="inlineStr">
@@ -33110,14 +37160,14 @@
       </c>
       <c r="L406" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M406" s="0">
-        <v>40.8300033549</v>
+        <v>42.7177574</v>
       </c>
       <c r="N406" s="0">
-        <v>-84.322311949</v>
+        <v>-77.487801022</v>
       </c>
       <c r="O406" s="0">
         <v>15398</v>
@@ -33142,6 +37192,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI406" s="0" t="inlineStr">
+        <is>
+          <t>v4-0538</t>
+        </is>
+      </c>
+      <c r="AJ406" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0538</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="407">
       <c r="A407" s="0" t="inlineStr">
@@ -33221,6 +37281,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI407" s="0" t="inlineStr">
+        <is>
+          <t>v4-0560</t>
+        </is>
+      </c>
+      <c r="AJ407" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0560</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="408">
       <c r="A408" s="0" t="inlineStr">
@@ -33300,6 +37370,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI408" s="0" t="inlineStr">
+        <is>
+          <t>v4-0563</t>
+        </is>
+      </c>
+      <c r="AJ408" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0563</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="409">
       <c r="A409" s="0" t="inlineStr">
@@ -33379,6 +37459,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI409" s="0" t="inlineStr">
+        <is>
+          <t>v4-0586</t>
+        </is>
+      </c>
+      <c r="AJ409" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0586</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="410">
       <c r="A410" s="0" t="inlineStr">
@@ -33458,6 +37548,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI410" s="0" t="inlineStr">
+        <is>
+          <t>v4-0596</t>
+        </is>
+      </c>
+      <c r="AJ410" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0596</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="411">
       <c r="A411" s="0" t="inlineStr">
@@ -33537,6 +37637,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI411" s="0" t="inlineStr">
+        <is>
+          <t>v4-0596</t>
+        </is>
+      </c>
+      <c r="AJ411" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0596</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="412">
       <c r="A412" s="0" t="inlineStr">
@@ -33616,6 +37726,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI412" s="0" t="inlineStr">
+        <is>
+          <t>v4-0605</t>
+        </is>
+      </c>
+      <c r="AJ412" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0605</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="413">
       <c r="A413" s="0" t="inlineStr">
@@ -33695,6 +37815,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI413" s="0" t="inlineStr">
+        <is>
+          <t>v4-0606</t>
+        </is>
+      </c>
+      <c r="AJ413" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_4-0606</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="414">
       <c r="A414" s="0" t="inlineStr">
@@ -33774,6 +37904,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI414" s="0" t="inlineStr">
+        <is>
+          <t>v5-0004</t>
+        </is>
+      </c>
+      <c r="AJ414" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0004</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="415">
       <c r="A415" s="0" t="inlineStr">
@@ -33853,6 +37993,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI415" s="0" t="inlineStr">
+        <is>
+          <t>v5-0006</t>
+        </is>
+      </c>
+      <c r="AJ415" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0006</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="416">
       <c r="A416" s="0" t="inlineStr">
@@ -33932,6 +38082,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI416" s="0" t="inlineStr">
+        <is>
+          <t>v5-0009</t>
+        </is>
+      </c>
+      <c r="AJ416" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0009</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="417">
       <c r="A417" s="0" t="inlineStr">
@@ -33979,14 +38139,14 @@
       </c>
       <c r="L417" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M417" s="0">
-        <v>37.66990716</v>
+        <v>31.93429916</v>
       </c>
       <c r="N417" s="0">
-        <v>-94.23836556</v>
+        <v>-91.423363849</v>
       </c>
       <c r="O417" s="0">
         <v>15977</v>
@@ -34026,6 +38186,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI417" s="0" t="inlineStr">
+        <is>
+          <t>v5-0016</t>
+        </is>
+      </c>
+      <c r="AJ417" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0016</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="418">
       <c r="A418" s="0" t="inlineStr">
@@ -34105,6 +38275,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI418" s="0" t="inlineStr">
+        <is>
+          <t>v5-0016</t>
+        </is>
+      </c>
+      <c r="AJ418" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0016</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="419">
       <c r="A419" s="0" t="inlineStr">
@@ -34184,6 +38364,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI419" s="0" t="inlineStr">
+        <is>
+          <t>v5-0023</t>
+        </is>
+      </c>
+      <c r="AJ419" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0023</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="420">
       <c r="A420" s="0" t="inlineStr">
@@ -34263,6 +38453,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI420" s="0" t="inlineStr">
+        <is>
+          <t>v5-0028</t>
+        </is>
+      </c>
+      <c r="AJ420" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0028</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="421">
       <c r="A421" s="0" t="inlineStr">
@@ -34357,6 +38557,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI421" s="0" t="inlineStr">
+        <is>
+          <t>v5-0029</t>
+        </is>
+      </c>
+      <c r="AJ421" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0029</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="422">
       <c r="A422" s="0" t="inlineStr">
@@ -34436,6 +38646,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI422" s="0" t="inlineStr">
+        <is>
+          <t>v5-0030</t>
+        </is>
+      </c>
+      <c r="AJ422" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0030</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="423">
       <c r="A423" s="0" t="inlineStr">
@@ -34515,6 +38735,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI423" s="0" t="inlineStr">
+        <is>
+          <t>v5-0038</t>
+        </is>
+      </c>
+      <c r="AJ423" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0038</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="424">
       <c r="A424" s="0" t="inlineStr">
@@ -34594,6 +38824,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI424" s="0" t="inlineStr">
+        <is>
+          <t>v5-0054</t>
+        </is>
+      </c>
+      <c r="AJ424" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0054</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="425">
       <c r="A425" s="0" t="inlineStr">
@@ -34673,6 +38913,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI425" s="0" t="inlineStr">
+        <is>
+          <t>v5-0057</t>
+        </is>
+      </c>
+      <c r="AJ425" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0057</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="426">
       <c r="A426" s="0" t="inlineStr">
@@ -34752,6 +39002,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI426" s="0" t="inlineStr">
+        <is>
+          <t>v5-0058</t>
+        </is>
+      </c>
+      <c r="AJ426" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0058</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="427">
       <c r="A427" s="0" t="inlineStr">
@@ -34831,6 +39091,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI427" s="0" t="inlineStr">
+        <is>
+          <t>v5-0085</t>
+        </is>
+      </c>
+      <c r="AJ427" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0085</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="428">
       <c r="A428" s="0" t="inlineStr">
@@ -34910,6 +39180,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI428" s="0" t="inlineStr">
+        <is>
+          <t>v5-0093</t>
+        </is>
+      </c>
+      <c r="AJ428" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0093</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="429">
       <c r="A429" s="0" t="inlineStr">
@@ -34989,6 +39269,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI429" s="0" t="inlineStr">
+        <is>
+          <t>v5-0126</t>
+        </is>
+      </c>
+      <c r="AJ429" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0126</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="430">
       <c r="A430" s="0" t="inlineStr">
@@ -35068,6 +39358,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI430" s="0" t="inlineStr">
+        <is>
+          <t>v5-0133</t>
+        </is>
+      </c>
+      <c r="AJ430" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0133</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="431">
       <c r="A431" s="0" t="inlineStr">
@@ -35147,6 +39447,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI431" s="0" t="inlineStr">
+        <is>
+          <t>v5-0133</t>
+        </is>
+      </c>
+      <c r="AJ431" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0133</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="432">
       <c r="A432" s="0" t="inlineStr">
@@ -35226,6 +39536,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI432" s="0" t="inlineStr">
+        <is>
+          <t>v5-0190</t>
+        </is>
+      </c>
+      <c r="AJ432" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0190</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="433">
       <c r="A433" s="0" t="inlineStr">
@@ -35305,6 +39625,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI433" s="0" t="inlineStr">
+        <is>
+          <t>v5-0388</t>
+        </is>
+      </c>
+      <c r="AJ433" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0388</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="434">
       <c r="A434" s="0" t="inlineStr">
@@ -35384,6 +39714,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI434" s="0" t="inlineStr">
+        <is>
+          <t>v5-0134</t>
+        </is>
+      </c>
+      <c r="AJ434" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0134</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="435">
       <c r="A435" s="0" t="inlineStr">
@@ -35431,14 +39771,14 @@
       </c>
       <c r="L435" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M435" s="0">
-        <v>37.57870716</v>
+        <v>44.763014037</v>
       </c>
       <c r="N435" s="0">
-        <v>-94.24956556</v>
+        <v>-97.261323554</v>
       </c>
       <c r="O435" s="0">
         <v>16833</v>
@@ -35478,6 +39818,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI435" s="0" t="inlineStr">
+        <is>
+          <t>v5-0137</t>
+        </is>
+      </c>
+      <c r="AJ435" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0137</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="436">
       <c r="A436" s="0" t="inlineStr">
@@ -35557,6 +39907,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI436" s="0" t="inlineStr">
+        <is>
+          <t>v5-0140</t>
+        </is>
+      </c>
+      <c r="AJ436" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0140</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="437">
       <c r="A437" s="0" t="inlineStr">
@@ -35636,6 +39996,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI437" s="0" t="inlineStr">
+        <is>
+          <t>v5-0161</t>
+        </is>
+      </c>
+      <c r="AJ437" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0161</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="438">
       <c r="A438" s="0" t="inlineStr">
@@ -35715,6 +40085,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI438" s="0" t="inlineStr">
+        <is>
+          <t>v5-0161</t>
+        </is>
+      </c>
+      <c r="AJ438" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0161</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="439">
       <c r="A439" s="0" t="inlineStr">
@@ -35809,6 +40189,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI439" s="0" t="inlineStr">
+        <is>
+          <t>v5-0170</t>
+        </is>
+      </c>
+      <c r="AJ439" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0170</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="440">
       <c r="A440" s="0" t="inlineStr">
@@ -35888,6 +40278,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI440" s="0" t="inlineStr">
+        <is>
+          <t>v5-0176</t>
+        </is>
+      </c>
+      <c r="AJ440" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0176</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="441">
       <c r="A441" s="0" t="inlineStr">
@@ -35977,6 +40377,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI441" s="0" t="inlineStr">
+        <is>
+          <t>v5-0176</t>
+        </is>
+      </c>
+      <c r="AJ441" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0176</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="442">
       <c r="A442" s="0" t="inlineStr">
@@ -36056,6 +40466,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI442" s="0" t="inlineStr">
+        <is>
+          <t>v5-0179</t>
+        </is>
+      </c>
+      <c r="AJ442" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0179</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="443">
       <c r="A443" s="0" t="inlineStr">
@@ -36135,6 +40555,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI443" s="0" t="inlineStr">
+        <is>
+          <t>v5-0209</t>
+        </is>
+      </c>
+      <c r="AJ443" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0209</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="444">
       <c r="A444" s="0" t="inlineStr">
@@ -36214,6 +40644,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI444" s="0" t="inlineStr">
+        <is>
+          <t>v5-0210</t>
+        </is>
+      </c>
+      <c r="AJ444" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0210</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="445">
       <c r="A445" s="0" t="inlineStr">
@@ -36293,6 +40733,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI445" s="0" t="inlineStr">
+        <is>
+          <t>v5-0225</t>
+        </is>
+      </c>
+      <c r="AJ445" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0225</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="446">
       <c r="A446" s="0" t="inlineStr">
@@ -36372,6 +40822,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI446" s="0" t="inlineStr">
+        <is>
+          <t>v5-0242</t>
+        </is>
+      </c>
+      <c r="AJ446" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0242</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="447">
       <c r="A447" s="0" t="inlineStr">
@@ -36451,6 +40911,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI447" s="0" t="inlineStr">
+        <is>
+          <t>v5-0246</t>
+        </is>
+      </c>
+      <c r="AJ447" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0246</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="448">
       <c r="A448" s="0" t="inlineStr">
@@ -36530,6 +41000,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI448" s="0" t="inlineStr">
+        <is>
+          <t>v5-0254</t>
+        </is>
+      </c>
+      <c r="AJ448" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0254</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="449">
       <c r="A449" s="0" t="inlineStr">
@@ -36609,6 +41089,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI449" s="0" t="inlineStr">
+        <is>
+          <t>v5-0258</t>
+        </is>
+      </c>
+      <c r="AJ449" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0258</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="450">
       <c r="A450" s="0" t="inlineStr">
@@ -36688,6 +41178,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI450" s="0" t="inlineStr">
+        <is>
+          <t>v5-0259</t>
+        </is>
+      </c>
+      <c r="AJ450" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0259</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="451">
       <c r="A451" s="0" t="inlineStr">
@@ -36767,6 +41267,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI451" s="0" t="inlineStr">
+        <is>
+          <t>v5-0265</t>
+        </is>
+      </c>
+      <c r="AJ451" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0265</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="452">
       <c r="A452" s="0" t="inlineStr">
@@ -36814,14 +41324,14 @@
       </c>
       <c r="L452" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>area_sufficient</t>
         </is>
       </c>
       <c r="M452" s="0">
-        <v>45.4703280904</v>
+        <v>45.755432177</v>
       </c>
       <c r="N452" s="0">
-        <v>-73.7462131063</v>
+        <v>-78.63102646</v>
       </c>
       <c r="O452" s="0">
         <v>17574</v>
@@ -36861,6 +41371,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI452" s="0" t="inlineStr">
+        <is>
+          <t>v5-0266</t>
+        </is>
+      </c>
+      <c r="AJ452" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0266</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="453">
       <c r="A453" s="0" t="inlineStr">
@@ -36940,6 +41460,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI453" s="0" t="inlineStr">
+        <is>
+          <t>v5-0278</t>
+        </is>
+      </c>
+      <c r="AJ453" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0278</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="454">
       <c r="A454" s="0" t="inlineStr">
@@ -37034,6 +41564,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI454" s="0" t="inlineStr">
+        <is>
+          <t>v5-0279</t>
+        </is>
+      </c>
+      <c r="AJ454" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0279</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="455">
       <c r="A455" s="0" t="inlineStr">
@@ -37113,6 +41653,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI455" s="0" t="inlineStr">
+        <is>
+          <t>v5-0280</t>
+        </is>
+      </c>
+      <c r="AJ455" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0280</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="456">
       <c r="A456" s="0" t="inlineStr">
@@ -37192,6 +41742,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI456" s="0" t="inlineStr">
+        <is>
+          <t>v5-0345</t>
+        </is>
+      </c>
+      <c r="AJ456" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0345</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="457">
       <c r="A457" s="0" t="inlineStr">
@@ -37271,6 +41831,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI457" s="0" t="inlineStr">
+        <is>
+          <t>v5-0354</t>
+        </is>
+      </c>
+      <c r="AJ457" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0354</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="458">
       <c r="A458" s="0" t="inlineStr">
@@ -37350,6 +41920,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI458" s="0" t="inlineStr">
+        <is>
+          <t>v5-0356</t>
+        </is>
+      </c>
+      <c r="AJ458" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0356</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="459">
       <c r="A459" s="0" t="inlineStr">
@@ -37429,6 +42009,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI459" s="0" t="inlineStr">
+        <is>
+          <t>v5-0378</t>
+        </is>
+      </c>
+      <c r="AJ459" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0378</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="460">
       <c r="A460" s="0" t="inlineStr">
@@ -37508,6 +42098,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI460" s="0" t="inlineStr">
+        <is>
+          <t>v5-0378</t>
+        </is>
+      </c>
+      <c r="AJ460" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0378</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="461">
       <c r="A461" s="0" t="inlineStr">
@@ -37587,6 +42187,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI461" s="0" t="inlineStr">
+        <is>
+          <t>v5-0384</t>
+        </is>
+      </c>
+      <c r="AJ461" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0384</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="462">
       <c r="A462" s="0" t="inlineStr">
@@ -37666,6 +42276,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI462" s="0" t="inlineStr">
+        <is>
+          <t>v5-0393</t>
+        </is>
+      </c>
+      <c r="AJ462" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0393</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="463">
       <c r="A463" s="0" t="inlineStr">
@@ -37745,6 +42365,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI463" s="0" t="inlineStr">
+        <is>
+          <t>v5-0400</t>
+        </is>
+      </c>
+      <c r="AJ463" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0400</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="464">
       <c r="A464" s="0" t="inlineStr">
@@ -37792,14 +42422,14 @@
       </c>
       <c r="L464" s="0" t="inlineStr">
         <is>
-          <t>dummy_regional</t>
+          <t>zonal</t>
         </is>
       </c>
       <c r="M464" s="0">
-        <v>37.58480716</v>
+        <v>32.06940776</v>
       </c>
       <c r="N464" s="0">
-        <v>-94.32346556</v>
+        <v>-89.756338609</v>
       </c>
       <c r="O464" s="0">
         <v>18386</v>
@@ -37839,6 +42469,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI464" s="0" t="inlineStr">
+        <is>
+          <t>v5-0407</t>
+        </is>
+      </c>
+      <c r="AJ464" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0407</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="465">
       <c r="A465" s="0" t="inlineStr">
@@ -37918,6 +42558,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI465" s="0" t="inlineStr">
+        <is>
+          <t>v5-0407</t>
+        </is>
+      </c>
+      <c r="AJ465" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0407</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="466">
       <c r="A466" s="0" t="inlineStr">
@@ -37997,6 +42647,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI466" s="0" t="inlineStr">
+        <is>
+          <t>v5-0420</t>
+        </is>
+      </c>
+      <c r="AJ466" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0420</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="467">
       <c r="A467" s="0" t="inlineStr">
@@ -38076,6 +42736,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI467" s="0" t="inlineStr">
+        <is>
+          <t>v5-0421</t>
+        </is>
+      </c>
+      <c r="AJ467" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0421</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="468">
       <c r="A468" s="0" t="inlineStr">
@@ -38155,6 +42825,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI468" s="0" t="inlineStr">
+        <is>
+          <t>v5-0421</t>
+        </is>
+      </c>
+      <c r="AJ468" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0421</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="469">
       <c r="A469" s="0" t="inlineStr">
@@ -38234,6 +42914,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI469" s="0" t="inlineStr">
+        <is>
+          <t>v5-0423</t>
+        </is>
+      </c>
+      <c r="AJ469" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0423</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="470">
       <c r="A470" s="0" t="inlineStr">
@@ -38313,6 +43003,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI470" s="0" t="inlineStr">
+        <is>
+          <t>v5-0434</t>
+        </is>
+      </c>
+      <c r="AJ470" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0434</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="471">
       <c r="A471" s="0" t="inlineStr">
@@ -38392,6 +43092,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI471" s="0" t="inlineStr">
+        <is>
+          <t>v5-0434</t>
+        </is>
+      </c>
+      <c r="AJ471" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0434</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="472">
       <c r="A472" s="0" t="inlineStr">
@@ -38471,6 +43181,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI472" s="0" t="inlineStr">
+        <is>
+          <t>v5-0435</t>
+        </is>
+      </c>
+      <c r="AJ472" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0435</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="473">
       <c r="A473" s="0" t="inlineStr">
@@ -38550,6 +43270,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI473" s="0" t="inlineStr">
+        <is>
+          <t>v5-0436</t>
+        </is>
+      </c>
+      <c r="AJ473" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0436</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="474">
       <c r="A474" s="0" t="inlineStr">
@@ -38629,6 +43359,16 @@
           <t>CLD</t>
         </is>
       </c>
+      <c r="AI474" s="0" t="inlineStr">
+        <is>
+          <t>v5-0447</t>
+        </is>
+      </c>
+      <c r="AJ474" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0447</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="475">
       <c r="A475" s="0" t="inlineStr">
@@ -38703,6 +43443,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI475" s="0" t="inlineStr">
+        <is>
+          <t>v5-0447</t>
+        </is>
+      </c>
+      <c r="AJ475" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0447</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="476">
       <c r="A476" s="0" t="inlineStr">
@@ -38777,6 +43527,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI476" s="0" t="inlineStr">
+        <is>
+          <t>v5-0449</t>
+        </is>
+      </c>
+      <c r="AJ476" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0449</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="477">
       <c r="A477" s="0" t="inlineStr">
@@ -38856,6 +43616,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI477" s="0" t="inlineStr">
+        <is>
+          <t>v5-0451</t>
+        </is>
+      </c>
+      <c r="AJ477" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0451</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="0" t="inlineStr">
@@ -38935,6 +43705,16 @@
           <t>WS</t>
         </is>
       </c>
+      <c r="AI478" s="0" t="inlineStr">
+        <is>
+          <t>v5-0461</t>
+        </is>
+      </c>
+      <c r="AJ478" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0461</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="0" t="inlineStr">
@@ -39012,6 +43792,16 @@
       <c r="AH479" s="0" t="inlineStr">
         <is>
           <t>CLD</t>
+        </is>
+      </c>
+      <c r="AI479" s="0" t="inlineStr">
+        <is>
+          <t>v5-0461</t>
+        </is>
+      </c>
+      <c r="AJ479" s="0" t="inlineStr">
+        <is>
+          <t>Alcedo_vol_5-0461</t>
         </is>
       </c>
     </row>
